--- a/capiq_data/in_process_data/IQ278212.xlsx
+++ b/capiq_data/in_process_data/IQ278212.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475F081-F0AE-406D-B662-B12680654696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A036A075-C6A7-4C2D-914D-BAA19589E6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c0698974-693e-4072-9352-4b364c3c059a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"439477f4-231d-4ce8-bd54-244879129c24"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -630,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,37 +844,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40569</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>273.78500000000003</v>
+        <v>270.52</v>
       </c>
       <c r="D2">
-        <v>2722.35</v>
+        <v>2269.6419999999998</v>
       </c>
       <c r="E2">
-        <v>785.17</v>
+        <v>1212.405</v>
       </c>
       <c r="F2">
-        <v>1028.2929999999999</v>
+        <v>884.13599999999997</v>
       </c>
       <c r="G2">
-        <v>3717.9969999999998</v>
+        <v>3381.0680000000002</v>
       </c>
       <c r="H2">
-        <v>11093.076999999999</v>
+        <v>9161.5720000000001</v>
       </c>
       <c r="I2">
-        <v>1076.367</v>
+        <v>901.09</v>
       </c>
       <c r="J2">
-        <v>3749.9630000000002</v>
+        <v>1894.5609999999999</v>
       </c>
       <c r="K2">
-        <v>68.656999999999996</v>
+        <v>2067.0309999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -763,81 +883,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3136.5709999999999</v>
+        <v>4668.3280000000004</v>
       </c>
       <c r="O2">
-        <v>8381.1149999999998</v>
+        <v>7431.26</v>
       </c>
       <c r="P2">
-        <v>4650.3459999999995</v>
+        <v>4990.9399999999996</v>
       </c>
       <c r="Q2">
-        <v>386.16399999999999</v>
+        <v>28.617000000000001</v>
       </c>
       <c r="R2">
-        <v>40569</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2711.962</v>
+        <v>1730.3119999999999</v>
       </c>
       <c r="U2">
-        <v>1052.0350000000001</v>
+        <v>192.88399999999999</v>
       </c>
       <c r="V2">
-        <v>509.46800000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="W2">
-        <v>-145.49299999999999</v>
+        <v>-136.59100000000001</v>
       </c>
       <c r="X2">
-        <v>109.105</v>
+        <v>124.63</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>19.986999999999998</v>
       </c>
       <c r="AA2">
-        <v>273.78500000000003</v>
+        <v>270.52</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40660</v>
+        <v>37013</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>223.863</v>
+        <v>-170.52099999999999</v>
       </c>
       <c r="D3">
-        <v>2888.79</v>
+        <v>2083.2530000000002</v>
       </c>
       <c r="E3">
-        <v>1039.0640000000001</v>
+        <v>1383.55</v>
       </c>
       <c r="F3">
-        <v>1049.643</v>
+        <v>385.74299999999999</v>
       </c>
       <c r="G3">
-        <v>3753.5419999999999</v>
+        <v>3116.8139999999999</v>
       </c>
       <c r="H3">
-        <v>12230.645</v>
+        <v>9035.15</v>
       </c>
       <c r="I3">
-        <v>1337.62</v>
+        <v>962.49699999999996</v>
       </c>
       <c r="J3">
-        <v>3078.1280000000002</v>
+        <v>3014.8530000000001</v>
       </c>
       <c r="K3">
-        <v>87.8</v>
+        <v>1555.8689999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -846,164 +966,164 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4161.46</v>
+        <v>3655.0970000000002</v>
       </c>
       <c r="O3">
-        <v>8923.51</v>
+        <v>7477.5010000000002</v>
       </c>
       <c r="P3">
-        <v>4619.1850000000004</v>
+        <v>4885.6869999999999</v>
       </c>
       <c r="Q3">
-        <v>-327.72399999999999</v>
+        <v>-54.034999999999997</v>
       </c>
       <c r="R3">
-        <v>40660</v>
+        <v>37013</v>
       </c>
       <c r="S3">
-        <v>34800</v>
+        <v>45800</v>
       </c>
       <c r="T3">
-        <v>3307.1350000000002</v>
+        <v>1557.6489999999999</v>
       </c>
       <c r="U3">
-        <v>724.31100000000004</v>
+        <v>138.84899999999999</v>
       </c>
       <c r="V3">
-        <v>442.08800000000002</v>
+        <v>507.69799999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-225.524</v>
+        <v>-199.12</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>7.0119999999999996</v>
       </c>
       <c r="AA3">
-        <v>223.863</v>
+        <v>-170.52099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40751</v>
+        <v>37104</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>226.114</v>
+        <v>200.47399999999999</v>
       </c>
       <c r="D4">
-        <v>2832.598</v>
+        <v>2077.2950000000001</v>
       </c>
       <c r="E4">
-        <v>896.42200000000003</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="F4">
-        <v>1015.022</v>
+        <v>762.279</v>
       </c>
       <c r="G4">
-        <v>3627.373</v>
+        <v>3108.64</v>
       </c>
       <c r="H4">
-        <v>12083.502</v>
+        <v>9335.2369999999992</v>
       </c>
       <c r="I4">
-        <v>1176.652</v>
+        <v>777.76499999999999</v>
       </c>
       <c r="J4">
-        <v>3940.8209999999999</v>
+        <v>4429.0020000000004</v>
       </c>
       <c r="K4">
-        <v>95.756</v>
+        <v>224.69300000000001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-656.84100000000001</v>
       </c>
       <c r="M4">
-        <v>-806.28200000000004</v>
+        <v>-26.571000000000002</v>
       </c>
       <c r="N4">
-        <v>3095.6689999999999</v>
+        <v>2129.4630000000002</v>
       </c>
       <c r="O4">
-        <v>8733.9339999999993</v>
+        <v>7890.4960000000001</v>
       </c>
       <c r="P4">
-        <v>4683.0680000000002</v>
+        <v>4968.4799999999996</v>
       </c>
       <c r="Q4">
-        <v>-46.582999999999998</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="R4">
-        <v>40751</v>
+        <v>37104</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3349.5680000000002</v>
+        <v>1444.741</v>
       </c>
       <c r="U4">
-        <v>677.72799999999995</v>
+        <v>141.81399999999999</v>
       </c>
       <c r="V4">
-        <v>164.79</v>
+        <v>59.901000000000003</v>
       </c>
       <c r="W4">
-        <v>-155.08099999999999</v>
+        <v>-137.09899999999999</v>
       </c>
       <c r="X4">
-        <v>-120.68899999999999</v>
+        <v>299.54700000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1.093</v>
       </c>
       <c r="AA4">
-        <v>226.114</v>
+        <v>200.47399999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40842</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>237.00899999999999</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2788.3789999999999</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>863.42100000000005</v>
+        <v>1452.0440000000001</v>
       </c>
       <c r="F5">
-        <v>994.29600000000005</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3821.9920000000002</v>
+        <v>3647.1529999999998</v>
       </c>
       <c r="H5">
-        <v>12106.197</v>
+        <v>10455.15</v>
       </c>
       <c r="I5">
-        <v>1219.3530000000001</v>
+        <v>1019.407</v>
       </c>
       <c r="J5">
-        <v>4184.741</v>
+        <v>5115.4560000000001</v>
       </c>
       <c r="K5">
-        <v>38.756</v>
+        <v>213.31200000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1012,37 +1132,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3264.28</v>
+        <v>2481.6970000000001</v>
       </c>
       <c r="O5">
-        <v>9110.5969999999998</v>
+        <v>8931.5990000000002</v>
       </c>
       <c r="P5">
-        <v>5057.3410000000003</v>
+        <v>5641.6930000000002</v>
       </c>
       <c r="Q5">
-        <v>180.279</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40842</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2995.6</v>
+        <v>1523.5509999999999</v>
       </c>
       <c r="U5">
-        <v>858.00699999999995</v>
+        <v>178.34700000000001</v>
       </c>
       <c r="V5">
-        <v>232.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-155.48400000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>96.906999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1051,42 +1171,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>237.00899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40933</v>
+        <v>37286</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>284.69400000000002</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2874.9270000000001</v>
+        <v>1928.7460000000001</v>
       </c>
       <c r="E6">
-        <v>893.79899999999998</v>
+        <v>1363.373</v>
       </c>
       <c r="F6">
-        <v>1055.816</v>
+        <v>669.26499999999999</v>
       </c>
       <c r="G6">
-        <v>3718.1590000000001</v>
+        <v>3488.663</v>
       </c>
       <c r="H6">
-        <v>11961.502</v>
+        <v>10092.287</v>
       </c>
       <c r="I6">
-        <v>1096.69</v>
+        <v>845.68499999999995</v>
       </c>
       <c r="J6">
-        <v>4177.902</v>
+        <v>4864.1329999999998</v>
       </c>
       <c r="K6">
-        <v>31.361000000000001</v>
+        <v>172.7</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1095,81 +1215,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3112.7620000000002</v>
+        <v>2359.8870000000002</v>
       </c>
       <c r="O6">
-        <v>8945.9680000000008</v>
+        <v>8549.4429999999993</v>
       </c>
       <c r="P6">
-        <v>5028.143</v>
+        <v>5608.9740000000002</v>
       </c>
       <c r="Q6">
-        <v>-9.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40933</v>
+        <v>37286</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3015.5340000000001</v>
+        <v>1542.8440000000001</v>
       </c>
       <c r="U6">
-        <v>848.91099999999994</v>
+        <v>202.316</v>
       </c>
       <c r="V6">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-154.33600000000001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-195.44300000000001</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>47.975999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>284.69400000000002</v>
+        <v>201.66</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41028</v>
+        <v>37377</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>175.34200000000001</v>
+        <v>223.51400000000001</v>
       </c>
       <c r="D7">
-        <v>3011.6680000000001</v>
+        <v>2070.1669999999999</v>
       </c>
       <c r="E7">
-        <v>815.6</v>
+        <v>1232.3879999999999</v>
       </c>
       <c r="F7">
-        <v>1059.5930000000001</v>
+        <v>744.43</v>
       </c>
       <c r="G7">
-        <v>3882.2359999999999</v>
+        <v>3373.5659999999998</v>
       </c>
       <c r="H7">
-        <v>11983.293</v>
+        <v>10278.353999999999</v>
       </c>
       <c r="I7">
-        <v>1202.3979999999999</v>
+        <v>882.82600000000002</v>
       </c>
       <c r="J7">
-        <v>4779.9809999999998</v>
+        <v>4642.9679999999998</v>
       </c>
       <c r="K7">
-        <v>46.46</v>
+        <v>178.358</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1178,120 +1298,120 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2647.9609999999998</v>
+        <v>2509.1689999999999</v>
       </c>
       <c r="O7">
-        <v>9058.7119999999995</v>
+        <v>8119.09</v>
       </c>
       <c r="P7">
-        <v>5029.4489999999996</v>
+        <v>5345.6130000000003</v>
       </c>
       <c r="Q7">
-        <v>481.53</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="R7">
-        <v>41028</v>
+        <v>37377</v>
       </c>
       <c r="S7">
-        <v>32200</v>
+        <v>46500</v>
       </c>
       <c r="T7">
-        <v>2924.5810000000001</v>
+        <v>2159.2640000000001</v>
       </c>
       <c r="U7">
-        <v>1330.441</v>
+        <v>202.40299999999999</v>
       </c>
       <c r="V7">
-        <v>749.60299999999995</v>
+        <v>560.83500000000004</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-143.61000000000001</v>
+        <v>-478.09800000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>8.8040000000000003</v>
+        <v>11.984999999999999</v>
       </c>
       <c r="AA7">
-        <v>175.34200000000001</v>
+        <v>223.51400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41119</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>258.02699999999999</v>
+        <v>99.983000000000004</v>
       </c>
       <c r="D8">
-        <v>2783.451</v>
+        <v>1839.3140000000001</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1132.7819999999999</v>
       </c>
       <c r="F8">
-        <v>1001.944</v>
+        <v>672.67899999999997</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3306.1840000000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10431.616</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>872.06899999999996</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4695.433</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>265.24299999999999</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-89.525000000000006</v>
       </c>
       <c r="M8">
-        <v>-200.21</v>
+        <v>-4.2460000000000004</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2472.3620000000001</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8560.5010000000002</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5418.5609999999997</v>
       </c>
       <c r="Q8">
-        <v>-351.90499999999997</v>
+        <v>-10.484999999999999</v>
       </c>
       <c r="R8">
-        <v>41119</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1871.115</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>197.91900000000001</v>
       </c>
       <c r="V8">
-        <v>49.034999999999997</v>
+        <v>228.89699999999999</v>
       </c>
       <c r="W8">
-        <v>-165.56899999999999</v>
+        <v>-142.13399999999999</v>
       </c>
       <c r="X8">
-        <v>-242.52099999999999</v>
+        <v>-219.48099999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1300,42 +1420,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>258.02699999999999</v>
+        <v>99.983000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41210</v>
+        <v>37559</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>212.08199999999999</v>
       </c>
       <c r="D9">
-        <v>2821.5340000000001</v>
+        <v>2099.17</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1300.9760000000001</v>
       </c>
       <c r="F9">
-        <v>1013.0170000000001</v>
+        <v>752.87900000000002</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3628.4470000000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10763.634</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1024.2950000000001</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4781.933</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>162.571</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1344,37 +1464,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2667.665</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>8881.3529999999992</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5474.3190000000004</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>99.944999999999993</v>
       </c>
       <c r="R9">
-        <v>41210</v>
+        <v>37559</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1882.2809999999999</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>297.005</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>314.12099999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-202.173</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1383,42 +1503,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>289.44400000000002</v>
+        <v>212.08199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41301</v>
+        <v>37650</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>269.54599999999999</v>
+        <v>151.619</v>
       </c>
       <c r="D10">
-        <v>2933.3310000000001</v>
+        <v>2105.0030000000002</v>
       </c>
       <c r="E10">
-        <v>896.41499999999996</v>
+        <v>1106.499</v>
       </c>
       <c r="F10">
-        <v>1106.5150000000001</v>
+        <v>763.64499999999998</v>
       </c>
       <c r="G10">
-        <v>3908.8719999999998</v>
+        <v>3463.3380000000002</v>
       </c>
       <c r="H10">
-        <v>11929.103999999999</v>
+        <v>9619.0460000000003</v>
       </c>
       <c r="I10">
-        <v>1129.6510000000001</v>
+        <v>847.74300000000005</v>
       </c>
       <c r="J10">
-        <v>3955.866</v>
+        <v>4690.5569999999998</v>
       </c>
       <c r="K10">
-        <v>14.747</v>
+        <v>142.84</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1427,37 +1547,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3376.3490000000002</v>
+        <v>2125.9850000000001</v>
       </c>
       <c r="O10">
-        <v>8819.2800000000007</v>
+        <v>8048.0069999999996</v>
       </c>
       <c r="P10">
-        <v>5031.5129999999999</v>
+        <v>5090.9660000000003</v>
       </c>
       <c r="Q10">
-        <v>93.486999999999995</v>
+        <v>532.25400000000002</v>
       </c>
       <c r="R10">
-        <v>41301</v>
+        <v>37650</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3109.8240000000001</v>
+        <v>1571.039</v>
       </c>
       <c r="U10">
-        <v>1100.6890000000001</v>
+        <v>824.11699999999996</v>
       </c>
       <c r="V10">
-        <v>385.64400000000001</v>
+        <v>120.395</v>
       </c>
       <c r="W10">
-        <v>-166.32900000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-227.67500000000001</v>
+        <v>-653.91200000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1466,81 +1586,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>269.54599999999999</v>
+        <v>151.619</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41357</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>177.749</v>
+        <v>102.601</v>
       </c>
       <c r="D11">
-        <v>2856.2449999999999</v>
+        <v>2193.3490000000002</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1165.46</v>
       </c>
       <c r="F11">
-        <v>1030.8620000000001</v>
+        <v>796.67100000000005</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3284.32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9224.7510000000002</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>938.16800000000001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4776.143</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>146.83799999999999</v>
       </c>
       <c r="L11">
-        <v>-309.83100000000002</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-7.1289999999999996</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1926.134</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>7610.0349999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>4930.9290000000001</v>
       </c>
       <c r="Q11">
-        <v>-239.94499999999999</v>
+        <v>-22.385000000000002</v>
       </c>
       <c r="R11">
-        <v>41357</v>
+        <v>37741</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>38900</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1614.7159999999999</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>801.73199999999997</v>
       </c>
       <c r="V11">
-        <v>490.428</v>
+        <v>344.85300000000001</v>
       </c>
       <c r="W11">
-        <v>-165.601</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-524.79999999999995</v>
+        <v>-340.976</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1549,81 +1669,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>177.749</v>
+        <v>102.601</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41448</v>
+        <v>37832</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>-117.199</v>
+        <v>214.02500000000001</v>
       </c>
       <c r="D12">
-        <v>2850.8789999999999</v>
+        <v>1895.5239999999999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>990.04300000000001</v>
       </c>
       <c r="F12">
-        <v>1032.7470000000001</v>
+        <v>707.07600000000002</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3224.4209999999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9060.8140000000003</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>902.70899999999995</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4608.2719999999999</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.151</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-40.356000000000002</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1760.9880000000001</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>7702.5169999999998</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>4644.375</v>
       </c>
       <c r="Q12">
-        <v>3227.3649999999998</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="R12">
-        <v>41448</v>
+        <v>37832</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1358.297</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>804.73400000000004</v>
       </c>
       <c r="V12">
-        <v>59.402000000000001</v>
+        <v>265.93599999999998</v>
       </c>
       <c r="W12">
-        <v>-166.053</v>
+        <v>-95.096000000000004</v>
       </c>
       <c r="X12">
-        <v>25406.646000000001</v>
+        <v>-251.06</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1632,42 +1752,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-123.892</v>
+        <v>214.02500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41539</v>
+        <v>37923</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>-9.4039999999999999</v>
+        <v>191.48699999999999</v>
       </c>
       <c r="D13">
-        <v>2646.5770000000002</v>
+        <v>2090.4609999999998</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1034.1300000000001</v>
       </c>
       <c r="F13">
-        <v>940.15800000000002</v>
+        <v>781.21799999999996</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3456.6190000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9410.2000000000007</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>967.86800000000005</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4971.8159999999998</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.609000000000002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1676,37 +1796,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1871.45</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>7868.2920000000004</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4995.7389999999996</v>
       </c>
       <c r="Q13">
-        <v>-668.36300000000006</v>
+        <v>43.962000000000003</v>
       </c>
       <c r="R13">
-        <v>41539</v>
+        <v>37923</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1541.9079999999999</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>848.69600000000003</v>
       </c>
       <c r="V13">
-        <v>-74.581000000000003</v>
+        <v>227.32300000000001</v>
       </c>
       <c r="W13">
-        <v>-180</v>
+        <v>-94.942999999999998</v>
       </c>
       <c r="X13">
-        <v>-1067.059</v>
+        <v>-151.642</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1715,42 +1835,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>-11.766999999999999</v>
+        <v>191.48699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>38014</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-447.14600000000002</v>
+        <v>202.23699999999999</v>
       </c>
       <c r="D14">
-        <v>2675.799</v>
+        <v>2097.181</v>
       </c>
       <c r="E14">
-        <v>1100</v>
+        <v>1029.442</v>
       </c>
       <c r="F14">
-        <v>883.07050000000004</v>
+        <v>779.24699999999996</v>
       </c>
       <c r="G14">
-        <v>5444</v>
+        <v>3609.0279999999998</v>
       </c>
       <c r="H14">
-        <v>38972</v>
+        <v>9909.9770000000008</v>
       </c>
       <c r="I14">
-        <v>1192</v>
+        <v>920.077</v>
       </c>
       <c r="J14">
-        <v>14618</v>
+        <v>4392.3850000000002</v>
       </c>
       <c r="K14">
-        <v>144</v>
+        <v>11.358000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1759,37 +1879,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2925</v>
+        <v>2340.7339999999999</v>
       </c>
       <c r="O14">
-        <v>22430</v>
+        <v>7787.299</v>
       </c>
       <c r="P14">
-        <v>14870</v>
+        <v>4782.8289999999997</v>
       </c>
       <c r="Q14">
-        <v>758.94299999999998</v>
+        <v>167.47</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>38014</v>
       </c>
       <c r="S14">
-        <v>28700</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>16542</v>
+        <v>2122.6779999999999</v>
       </c>
       <c r="U14">
-        <v>2459</v>
+        <v>1016.1660000000001</v>
       </c>
       <c r="V14">
-        <v>-982.24900000000002</v>
+        <v>323.79399999999998</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-94.869</v>
       </c>
       <c r="X14">
-        <v>12477.713</v>
+        <v>-142.983</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1798,208 +1918,208 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>-450.09100000000001</v>
+        <v>202.23699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38105</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>196.524</v>
       </c>
       <c r="D15">
-        <v>2800</v>
+        <v>2331.3719999999998</v>
       </c>
       <c r="E15">
-        <v>1106.3040000000001</v>
+        <v>1093.155</v>
       </c>
       <c r="F15">
-        <v>1073</v>
+        <v>820.71600000000001</v>
       </c>
       <c r="G15">
-        <v>5611.9229999999998</v>
+        <v>3610.7959999999998</v>
       </c>
       <c r="H15">
-        <v>38961.675000000003</v>
+        <v>9877.1890000000003</v>
       </c>
       <c r="I15">
-        <v>1294.5119999999999</v>
+        <v>1063.1130000000001</v>
       </c>
       <c r="J15">
-        <v>14593.433999999999</v>
+        <v>4212.9799999999996</v>
       </c>
       <c r="K15">
-        <v>130.72900000000001</v>
+        <v>11.433999999999999</v>
       </c>
       <c r="L15">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2959.3069999999998</v>
+        <v>2469.0680000000002</v>
       </c>
       <c r="O15">
-        <v>22461.178</v>
+        <v>7553.3549999999996</v>
       </c>
       <c r="P15">
-        <v>14831.374</v>
+        <v>4649.43</v>
       </c>
       <c r="Q15">
-        <v>55</v>
+        <v>123.873</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38105</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="T15">
-        <v>16500.496999999999</v>
+        <v>2323.8339999999998</v>
       </c>
       <c r="U15">
-        <v>2515.232</v>
+        <v>1140.039</v>
       </c>
       <c r="V15">
-        <v>302</v>
+        <v>431.95400000000001</v>
       </c>
       <c r="W15">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-218</v>
+        <v>-98.236999999999995</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="AA15">
-        <v>195</v>
+        <v>196.524</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38196</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>194.83600000000001</v>
       </c>
       <c r="D16">
-        <v>2729</v>
+        <v>2003.0260000000001</v>
       </c>
       <c r="E16">
-        <v>956.78300000000002</v>
+        <v>953.63900000000001</v>
       </c>
       <c r="F16">
-        <v>1054</v>
+        <v>738.75300000000004</v>
       </c>
       <c r="G16">
-        <v>5610.0640000000003</v>
+        <v>3557.2260000000001</v>
       </c>
       <c r="H16">
-        <v>38767.332000000002</v>
+        <v>9760.4860000000008</v>
       </c>
       <c r="I16">
-        <v>1266.807</v>
+        <v>910.08500000000004</v>
       </c>
       <c r="J16">
-        <v>14571.638000000001</v>
+        <v>4198.7969999999996</v>
       </c>
       <c r="K16">
-        <v>1.0529999999999999</v>
+        <v>13.026</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-6.17</v>
       </c>
       <c r="N16">
-        <v>2942.5830000000001</v>
+        <v>2249.77</v>
       </c>
       <c r="O16">
-        <v>22303.054</v>
+        <v>7468.2569999999996</v>
       </c>
       <c r="P16">
-        <v>14679.107</v>
+        <v>4638.3310000000001</v>
       </c>
       <c r="Q16">
-        <v>291</v>
+        <v>-213.30199999999999</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38196</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>16464.277999999998</v>
+        <v>2292.2289999999998</v>
       </c>
       <c r="U16">
-        <v>2804.9169999999999</v>
+        <v>1173.6369999999999</v>
       </c>
       <c r="V16">
-        <v>545</v>
+        <v>186.18</v>
       </c>
       <c r="W16">
-        <v>-180</v>
+        <v>-99.97</v>
       </c>
       <c r="X16">
-        <v>-191</v>
+        <v>-160.392</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-206.9</v>
       </c>
       <c r="AA16">
-        <v>127</v>
+        <v>194.83600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38287</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2594</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>812.03800000000001</v>
+        <v>1066.2090000000001</v>
       </c>
       <c r="F17">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>5635.9780000000001</v>
+        <v>4027.1489999999999</v>
       </c>
       <c r="H17">
-        <v>38055.415999999997</v>
+        <v>10447.978999999999</v>
       </c>
       <c r="I17">
-        <v>1394.231</v>
+        <v>1116.7460000000001</v>
       </c>
       <c r="J17">
-        <v>14530.43</v>
+        <v>4351.6390000000001</v>
       </c>
       <c r="K17">
-        <v>0.90400000000000003</v>
+        <v>20.119</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2008,37 +2128,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2905.3220000000001</v>
+        <v>2580.0740000000001</v>
       </c>
       <c r="O17">
-        <v>22038.832999999999</v>
+        <v>7957.3549999999996</v>
       </c>
       <c r="P17">
-        <v>14639.871999999999</v>
+        <v>4818.7749999999996</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38287</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>16016.583000000001</v>
+        <v>2490.6239999999998</v>
       </c>
       <c r="U17">
-        <v>2854.1089999999999</v>
+        <v>1267.694</v>
       </c>
       <c r="V17">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-201</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2047,42 +2167,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38378</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>163</v>
+        <v>152.411</v>
       </c>
       <c r="D18">
-        <v>2799</v>
+        <v>2069.1590000000001</v>
       </c>
       <c r="E18">
-        <v>851</v>
+        <v>1073.5920000000001</v>
       </c>
       <c r="F18">
-        <v>1032</v>
+        <v>784.73400000000004</v>
       </c>
       <c r="G18">
-        <v>4915</v>
+        <v>3531.4459999999999</v>
       </c>
       <c r="H18">
-        <v>36571</v>
+        <v>9952.8670000000002</v>
       </c>
       <c r="I18">
-        <v>1651</v>
+        <v>974.21699999999998</v>
       </c>
       <c r="J18">
-        <v>13358</v>
+        <v>4364.4359999999997</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.101999999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2091,37 +2211,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3092</v>
+        <v>1814.933</v>
       </c>
       <c r="O18">
-        <v>20886</v>
+        <v>7306.9769999999999</v>
       </c>
       <c r="P18">
-        <v>13369</v>
+        <v>4466.2629999999999</v>
       </c>
       <c r="Q18">
-        <v>-556</v>
+        <v>-432.88900000000001</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38378</v>
       </c>
       <c r="S18">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>15685</v>
+        <v>2645.89</v>
       </c>
       <c r="U18">
-        <v>2298</v>
+        <v>834.80499999999995</v>
       </c>
       <c r="V18">
-        <v>809</v>
+        <v>126.584</v>
       </c>
       <c r="W18">
-        <v>-180</v>
+        <v>-99.73</v>
       </c>
       <c r="X18">
-        <v>-1210</v>
+        <v>-518.85599999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2130,81 +2250,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>163</v>
+        <v>152.411</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38469</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>276</v>
+        <v>206.48699999999999</v>
       </c>
       <c r="D19">
-        <v>2478</v>
+        <v>2230.5059999999999</v>
       </c>
       <c r="E19">
-        <v>818</v>
+        <v>1092.394</v>
       </c>
       <c r="F19">
-        <v>877</v>
+        <v>825.23500000000001</v>
       </c>
       <c r="G19">
-        <v>4477</v>
+        <v>3645.576</v>
       </c>
       <c r="H19">
-        <v>36293</v>
+        <v>10577.718000000001</v>
       </c>
       <c r="I19">
-        <v>1499</v>
+        <v>1181.652</v>
       </c>
       <c r="J19">
-        <v>13718</v>
+        <v>3796.9839999999999</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>28.471</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1962</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2532</v>
+        <v>2587.0680000000002</v>
       </c>
       <c r="O19">
-        <v>20931</v>
+        <v>7535.3119999999999</v>
       </c>
       <c r="P19">
-        <v>13729</v>
+        <v>4370.2529999999997</v>
       </c>
       <c r="Q19">
-        <v>-399</v>
+        <v>248.94399999999999</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38469</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="T19">
-        <v>15362</v>
+        <v>3042.4059999999999</v>
       </c>
       <c r="U19">
-        <v>1899</v>
+        <v>1083.749</v>
       </c>
       <c r="V19">
-        <v>-83</v>
+        <v>654.64700000000005</v>
       </c>
       <c r="W19">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-214</v>
+        <v>-210.68299999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2213,42 +2333,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>276</v>
+        <v>206.48699999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38560</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>-164</v>
+        <v>157.274</v>
       </c>
       <c r="D20">
-        <v>2616</v>
+        <v>1900.278</v>
       </c>
       <c r="E20">
-        <v>795</v>
+        <v>1014.505</v>
       </c>
       <c r="F20">
-        <v>928</v>
+        <v>704.66200000000003</v>
       </c>
       <c r="G20">
-        <v>4589</v>
+        <v>3672.0619999999999</v>
       </c>
       <c r="H20">
-        <v>36062</v>
+        <v>10379.316999999999</v>
       </c>
       <c r="I20">
-        <v>1509</v>
+        <v>946.88199999999995</v>
       </c>
       <c r="J20">
-        <v>13638</v>
+        <v>4657.6189999999997</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>45.057000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2257,37 +2377,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2653</v>
+        <v>2285.404</v>
       </c>
       <c r="O20">
-        <v>20761</v>
+        <v>8183.2489999999998</v>
       </c>
       <c r="P20">
-        <v>13650</v>
+        <v>5210.2700000000004</v>
       </c>
       <c r="Q20">
-        <v>248</v>
+        <v>123.084</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38560</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>15301</v>
+        <v>2196.0680000000002</v>
       </c>
       <c r="U20">
-        <v>2147</v>
+        <v>1206.8330000000001</v>
       </c>
       <c r="V20">
-        <v>494</v>
+        <v>165.916</v>
       </c>
       <c r="W20">
-        <v>-180</v>
+        <v>-104.208</v>
       </c>
       <c r="X20">
-        <v>-165</v>
+        <v>132.16200000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2296,42 +2416,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>-164</v>
+        <v>157.274</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38651</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>-123</v>
+        <v>203.821</v>
       </c>
       <c r="D21">
-        <v>6120</v>
+        <v>2156.9839999999999</v>
       </c>
       <c r="E21">
-        <v>1613</v>
+        <v>1162.08</v>
       </c>
       <c r="F21">
-        <v>1787</v>
+        <v>805.87199999999996</v>
       </c>
       <c r="G21">
-        <v>10411</v>
+        <v>3410.7939999999999</v>
       </c>
       <c r="H21">
-        <v>121792</v>
+        <v>11142.712</v>
       </c>
       <c r="I21">
-        <v>2719</v>
+        <v>1135.5239999999999</v>
       </c>
       <c r="J21">
-        <v>25250</v>
+        <v>5110.5659999999998</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>54.539000000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2340,37 +2460,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5746</v>
+        <v>2533.1</v>
       </c>
       <c r="O21">
-        <v>54433</v>
+        <v>9051.1129999999994</v>
       </c>
       <c r="P21">
-        <v>25324</v>
+        <v>5673.9660000000003</v>
       </c>
       <c r="Q21">
-        <v>2290</v>
+        <v>-606.62800000000004</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38651</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>67359</v>
+        <v>2091.5990000000002</v>
       </c>
       <c r="U21">
-        <v>4437</v>
+        <v>600.20500000000004</v>
       </c>
       <c r="V21">
-        <v>335</v>
+        <v>227.56700000000001</v>
       </c>
       <c r="W21">
-        <v>-817</v>
+        <v>-102.386</v>
       </c>
       <c r="X21">
-        <v>11570</v>
+        <v>188.10499999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2379,42 +2499,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-123</v>
+        <v>203.821</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42372</v>
+        <v>38742</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>7124</v>
+        <v>2186.5239999999999</v>
       </c>
       <c r="E22">
-        <v>1454</v>
+        <v>1056.326</v>
       </c>
       <c r="F22">
-        <v>3050</v>
+        <v>798.31700000000001</v>
       </c>
       <c r="G22">
-        <v>9780</v>
+        <v>3751.17</v>
       </c>
       <c r="H22">
-        <v>122973</v>
+        <v>11325.009</v>
       </c>
       <c r="I22">
-        <v>2844</v>
+        <v>915.28800000000001</v>
       </c>
       <c r="J22">
-        <v>25151</v>
+        <v>5312.0150000000003</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>54.234999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2423,37 +2543,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6932</v>
+        <v>2476.8980000000001</v>
       </c>
       <c r="O22">
-        <v>56737</v>
+        <v>9163.1389999999992</v>
       </c>
       <c r="P22">
-        <v>25234</v>
+        <v>5881.1719999999996</v>
       </c>
       <c r="Q22">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42372</v>
+        <v>38742</v>
       </c>
       <c r="S22">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>66236</v>
+        <v>2161.87</v>
       </c>
       <c r="U22">
-        <v>4837</v>
+        <v>944.28099999999995</v>
       </c>
       <c r="V22">
-        <v>1721</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-1025</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1008</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2462,42 +2582,42 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>645</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42463</v>
+        <v>38840</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>896</v>
+        <v>167.90799999999999</v>
       </c>
       <c r="D23">
-        <v>6570</v>
+        <v>2399.652</v>
       </c>
       <c r="E23">
-        <v>1744</v>
+        <v>1002.125</v>
       </c>
       <c r="F23">
-        <v>2559</v>
+        <v>872.423</v>
       </c>
       <c r="G23">
-        <v>9812</v>
+        <v>2703.9349999999999</v>
       </c>
       <c r="H23">
-        <v>123273</v>
+        <v>9737.7669999999998</v>
       </c>
       <c r="I23">
-        <v>2773</v>
+        <v>1035.0840000000001</v>
       </c>
       <c r="J23">
-        <v>25167</v>
+        <v>4032.0129999999999</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>54.052</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2506,37 +2626,37 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6730</v>
+        <v>2018.231</v>
       </c>
       <c r="O23">
-        <v>56673</v>
+        <v>7243.7920000000004</v>
       </c>
       <c r="P23">
-        <v>25167</v>
+        <v>4086.982</v>
       </c>
       <c r="Q23">
-        <v>-606</v>
+        <v>-498.85399999999998</v>
       </c>
       <c r="R23">
-        <v>42463</v>
+        <v>38840</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="T23">
-        <v>66600</v>
+        <v>2493.9749999999999</v>
       </c>
       <c r="U23">
-        <v>4199</v>
+        <v>445.42700000000002</v>
       </c>
       <c r="V23">
-        <v>-156</v>
+        <v>588.02499999999998</v>
       </c>
       <c r="W23">
-        <v>-667</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-627</v>
+        <v>-1678.306</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2545,81 +2665,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>896</v>
+        <v>167.90799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42554</v>
+        <v>38931</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>950</v>
+        <v>194.101</v>
       </c>
       <c r="D24">
-        <v>6793</v>
+        <v>2059.92</v>
       </c>
       <c r="E24">
-        <v>1260</v>
+        <v>941.06399999999996</v>
       </c>
       <c r="F24">
-        <v>2783</v>
+        <v>772.41700000000003</v>
       </c>
       <c r="G24">
-        <v>9347</v>
+        <v>2598.779</v>
       </c>
       <c r="H24">
-        <v>121684</v>
+        <v>9717.3259999999991</v>
       </c>
       <c r="I24">
-        <v>2960</v>
+        <v>985.45600000000002</v>
       </c>
       <c r="J24">
-        <v>30002</v>
+        <v>4399.7169999999996</v>
       </c>
       <c r="K24">
-        <v>645</v>
+        <v>52.279000000000003</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-10.505000000000001</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-22.538</v>
       </c>
       <c r="N24">
-        <v>9593</v>
+        <v>1860.0329999999999</v>
       </c>
       <c r="O24">
-        <v>63637</v>
+        <v>7553.7860000000001</v>
       </c>
       <c r="P24">
-        <v>32753</v>
+        <v>4455.0050000000001</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>-77.36</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>38931</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>58047</v>
+        <v>2163.54</v>
       </c>
       <c r="U24">
-        <v>4237</v>
+        <v>368.06700000000001</v>
       </c>
       <c r="V24">
-        <v>1055</v>
+        <v>78.146000000000001</v>
       </c>
       <c r="W24">
-        <v>-847</v>
+        <v>-116.374</v>
       </c>
       <c r="X24">
-        <v>-1562</v>
+        <v>-142.34299999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2628,42 +2748,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>950</v>
+        <v>194.101</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>39022</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>842</v>
+        <v>191.57499999999999</v>
       </c>
       <c r="D25">
-        <v>6267</v>
+        <v>2232.2249999999999</v>
       </c>
       <c r="E25">
-        <v>1063</v>
+        <v>1031.3520000000001</v>
       </c>
       <c r="F25">
-        <v>2370</v>
+        <v>846.59799999999996</v>
       </c>
       <c r="G25">
-        <v>8943</v>
+        <v>2856.3780000000002</v>
       </c>
       <c r="H25">
-        <v>121080</v>
+        <v>10198.384</v>
       </c>
       <c r="I25">
-        <v>3456</v>
+        <v>1094.241</v>
       </c>
       <c r="J25">
-        <v>29980</v>
+        <v>4507.6120000000001</v>
       </c>
       <c r="K25">
-        <v>653</v>
+        <v>121.93899999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2672,37 +2792,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9414</v>
+        <v>2151.0790000000002</v>
       </c>
       <c r="O25">
-        <v>63212</v>
+        <v>7964.4080000000004</v>
       </c>
       <c r="P25">
-        <v>32680</v>
+        <v>4632.6090000000004</v>
       </c>
       <c r="Q25">
-        <v>-405</v>
+        <v>11.628</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>39022</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>57868</v>
+        <v>2233.9760000000001</v>
       </c>
       <c r="U25">
-        <v>3920</v>
+        <v>379.69499999999999</v>
       </c>
       <c r="V25">
-        <v>117</v>
+        <v>219.893</v>
       </c>
       <c r="W25">
-        <v>-789</v>
+        <v>-116.084</v>
       </c>
       <c r="X25">
-        <v>-835</v>
+        <v>-93.206000000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2711,42 +2831,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>842</v>
+        <v>191.57499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>944</v>
+        <v>219.03800000000001</v>
       </c>
       <c r="D26">
-        <v>6857</v>
+        <v>2295.192</v>
       </c>
       <c r="E26">
-        <v>898</v>
+        <v>1080.5250000000001</v>
       </c>
       <c r="F26">
-        <v>2640</v>
+        <v>852.11599999999999</v>
       </c>
       <c r="G26">
-        <v>8753</v>
+        <v>2929.4879999999998</v>
       </c>
       <c r="H26">
-        <v>120480</v>
+        <v>10276.463</v>
       </c>
       <c r="I26">
-        <v>3996</v>
+        <v>969.73199999999997</v>
       </c>
       <c r="J26">
-        <v>29713</v>
+        <v>4805.2759999999998</v>
       </c>
       <c r="K26">
-        <v>645</v>
+        <v>111.381</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2755,37 +2875,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>9501</v>
+        <v>1900.4349999999999</v>
       </c>
       <c r="O26">
-        <v>62906</v>
+        <v>8067.9669999999996</v>
       </c>
       <c r="P26">
-        <v>32404</v>
+        <v>4919.72</v>
       </c>
       <c r="Q26">
-        <v>284</v>
+        <v>39.314999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39113</v>
       </c>
       <c r="S26">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>57574</v>
+        <v>2208.4960000000001</v>
       </c>
       <c r="U26">
-        <v>4204</v>
+        <v>419.01</v>
       </c>
       <c r="V26">
-        <v>1633</v>
+        <v>125.137</v>
       </c>
       <c r="W26">
-        <v>-1461</v>
+        <v>-115.339</v>
       </c>
       <c r="X26">
-        <v>-1597</v>
+        <v>-0.85799999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2794,81 +2914,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>944</v>
+        <v>219.03800000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39204</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>893</v>
+        <v>181.03200000000001</v>
       </c>
       <c r="D27">
-        <v>6324</v>
+        <v>2414.2930000000001</v>
       </c>
       <c r="E27">
-        <v>1474</v>
+        <v>996.85199999999998</v>
       </c>
       <c r="F27">
-        <v>2295</v>
+        <v>921.76900000000001</v>
       </c>
       <c r="G27">
-        <v>8875</v>
+        <v>3019.002</v>
       </c>
       <c r="H27">
-        <v>120802</v>
+        <v>10033.026</v>
       </c>
       <c r="I27">
-        <v>3936</v>
+        <v>1181.078</v>
       </c>
       <c r="J27">
-        <v>29748</v>
+        <v>4413.6409999999996</v>
       </c>
       <c r="K27">
-        <v>909</v>
+        <v>165.054</v>
       </c>
       <c r="L27">
-        <v>-2068</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>9383</v>
+        <v>2505.1060000000002</v>
       </c>
       <c r="O27">
-        <v>62858</v>
+        <v>8093.0339999999997</v>
       </c>
       <c r="P27">
-        <v>32680</v>
+        <v>4881.884</v>
       </c>
       <c r="Q27">
-        <v>-973</v>
+        <v>233.886</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39204</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="T27">
-        <v>57944</v>
+        <v>1939.992</v>
       </c>
       <c r="U27">
-        <v>3242</v>
+        <v>652.89599999999996</v>
       </c>
       <c r="V27">
-        <v>-615</v>
+        <v>672.62300000000005</v>
       </c>
       <c r="W27">
-        <v>-736</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-505</v>
+        <v>-384.50200000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2877,81 +2997,81 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>893</v>
+        <v>181.03200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39295</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>1159</v>
+        <v>205.29400000000001</v>
       </c>
       <c r="D28">
-        <v>6637</v>
+        <v>2248.2849999999999</v>
       </c>
       <c r="E28">
-        <v>1434</v>
+        <v>1044.509</v>
       </c>
       <c r="F28">
-        <v>2516</v>
+        <v>838.4</v>
       </c>
       <c r="G28">
-        <v>7108</v>
+        <v>2874.5929999999998</v>
       </c>
       <c r="H28">
-        <v>119416</v>
+        <v>9924.7710000000006</v>
       </c>
       <c r="I28">
-        <v>3888</v>
+        <v>1196.492</v>
       </c>
       <c r="J28">
-        <v>29979</v>
+        <v>4136.0649999999996</v>
       </c>
       <c r="K28">
-        <v>1090</v>
+        <v>118.64400000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="N28">
-        <v>7356</v>
+        <v>2668.259</v>
       </c>
       <c r="O28">
-        <v>60870</v>
+        <v>8062.4769999999999</v>
       </c>
       <c r="P28">
-        <v>31088</v>
+        <v>4883.6840000000002</v>
       </c>
       <c r="Q28">
-        <v>-1764</v>
+        <v>-300.88299999999998</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39295</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>58546</v>
+        <v>1862.2940000000001</v>
       </c>
       <c r="U28">
-        <v>1445</v>
+        <v>352.01299999999998</v>
       </c>
       <c r="V28">
-        <v>437</v>
+        <v>9.1159999999999997</v>
       </c>
       <c r="W28">
-        <v>-698</v>
+        <v>-123.20399999999999</v>
       </c>
       <c r="X28">
-        <v>-2506</v>
+        <v>-224.34700000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2960,42 +3080,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>1159</v>
+        <v>205.29400000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>944</v>
+        <v>227.03700000000001</v>
       </c>
       <c r="D29">
-        <v>6280</v>
+        <v>2523.3789999999999</v>
       </c>
       <c r="E29">
-        <v>1365</v>
+        <v>1153.9390000000001</v>
       </c>
       <c r="F29">
-        <v>2288</v>
+        <v>931.80200000000002</v>
       </c>
       <c r="G29">
-        <v>7228</v>
+        <v>3447.6840000000002</v>
       </c>
       <c r="H29">
-        <v>120051</v>
+        <v>10763.929</v>
       </c>
       <c r="I29">
-        <v>3947</v>
+        <v>1303.527</v>
       </c>
       <c r="J29">
-        <v>28299</v>
+        <v>4585.1310000000003</v>
       </c>
       <c r="K29">
-        <v>455</v>
+        <v>100.58499999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3004,37 +3124,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9387</v>
+        <v>2845.2289999999998</v>
       </c>
       <c r="O29">
-        <v>61080</v>
+        <v>8758.348</v>
       </c>
       <c r="P29">
-        <v>31509</v>
+        <v>5312.48</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>224.22</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39386</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>58971</v>
+        <v>2005.5809999999999</v>
       </c>
       <c r="U29">
-        <v>1441</v>
+        <v>576.23299999999995</v>
       </c>
       <c r="V29">
-        <v>194</v>
+        <v>207.018</v>
       </c>
       <c r="W29">
-        <v>-727</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-478</v>
+        <v>88.484999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3043,42 +3163,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>944</v>
+        <v>227.03700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39477</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>7945</v>
+        <v>218.53200000000001</v>
       </c>
       <c r="D30">
-        <v>6835</v>
+        <v>2610.8629999999998</v>
       </c>
       <c r="E30">
-        <v>1274</v>
+        <v>1321.8710000000001</v>
       </c>
       <c r="F30">
-        <v>2398</v>
+        <v>935.41600000000005</v>
       </c>
       <c r="G30">
-        <v>7201</v>
+        <v>3610.826</v>
       </c>
       <c r="H30">
-        <v>120092</v>
+        <v>10828.66</v>
       </c>
       <c r="I30">
-        <v>4362</v>
+        <v>1190.877</v>
       </c>
       <c r="J30">
-        <v>28224</v>
+        <v>4765.4520000000002</v>
       </c>
       <c r="K30">
-        <v>462</v>
+        <v>86.981999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3087,120 +3207,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>10154</v>
+        <v>2769.3649999999998</v>
       </c>
       <c r="O30">
-        <v>54016</v>
+        <v>8828.6779999999999</v>
       </c>
       <c r="P30">
-        <v>31503</v>
+        <v>5481.71</v>
       </c>
       <c r="Q30">
-        <v>220</v>
+        <v>68.531999999999996</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39477</v>
       </c>
       <c r="S30">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>66076</v>
+        <v>1999.982</v>
       </c>
       <c r="U30">
-        <v>1629</v>
+        <v>644.76499999999999</v>
       </c>
       <c r="V30">
-        <v>485</v>
+        <v>254.53399999999999</v>
       </c>
       <c r="W30">
-        <v>-727</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-732</v>
+        <v>-96.043999999999997</v>
       </c>
       <c r="Y30">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>7945</v>
+        <v>218.53200000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>1003</v>
+        <v>194.06200000000001</v>
       </c>
       <c r="D31">
-        <v>6304</v>
+        <v>2688.2510000000002</v>
       </c>
       <c r="E31">
-        <v>1574</v>
+        <v>1161.481</v>
       </c>
       <c r="F31">
-        <v>2342</v>
+        <v>975.07399999999996</v>
       </c>
       <c r="G31">
-        <v>7437</v>
+        <v>3325.5659999999998</v>
       </c>
       <c r="H31">
-        <v>120787</v>
+        <v>10565.043</v>
       </c>
       <c r="I31">
-        <v>4241</v>
+        <v>1247.479</v>
       </c>
       <c r="J31">
-        <v>28561</v>
+        <v>4730.9459999999999</v>
       </c>
       <c r="K31">
-        <v>1001</v>
+        <v>124.29</v>
       </c>
       <c r="L31">
-        <v>-1006</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>10329</v>
+        <v>2670.06</v>
       </c>
       <c r="O31">
-        <v>54324</v>
+        <v>8611.4959999999992</v>
       </c>
       <c r="P31">
-        <v>32304</v>
+        <v>5183.6540000000005</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>-27.077999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39568</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="T31">
-        <v>66463</v>
+        <v>1953.547</v>
       </c>
       <c r="U31">
-        <v>1794</v>
+        <v>617.68700000000001</v>
       </c>
       <c r="V31">
-        <v>408</v>
+        <v>717.63499999999999</v>
       </c>
       <c r="W31">
-        <v>-897</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-371</v>
+        <v>-526.18899999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3209,81 +3329,81 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1003</v>
+        <v>194.06200000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39659</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>754</v>
+        <v>228.964</v>
       </c>
       <c r="D32">
-        <v>6690</v>
+        <v>2578.8040000000001</v>
       </c>
       <c r="E32">
-        <v>1987</v>
+        <v>1202.826</v>
       </c>
       <c r="F32">
-        <v>2426</v>
+        <v>934.41899999999998</v>
       </c>
       <c r="G32">
-        <v>9501</v>
+        <v>3446.8670000000002</v>
       </c>
       <c r="H32">
-        <v>121896</v>
+        <v>10633.651</v>
       </c>
       <c r="I32">
-        <v>4326</v>
+        <v>1228.0039999999999</v>
       </c>
       <c r="J32">
-        <v>31380</v>
+        <v>5106.6360000000004</v>
       </c>
       <c r="K32">
-        <v>34</v>
+        <v>147.70599999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-735.06100000000004</v>
       </c>
       <c r="N32">
-        <v>9091</v>
+        <v>2243.4540000000002</v>
       </c>
       <c r="O32">
-        <v>56024</v>
+        <v>8623.18</v>
       </c>
       <c r="P32">
-        <v>34168</v>
+        <v>5257.616</v>
       </c>
       <c r="Q32">
-        <v>1575</v>
+        <v>-63.338999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39659</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>65872</v>
+        <v>2010.471</v>
       </c>
       <c r="U32">
-        <v>3369</v>
+        <v>554.34799999999996</v>
       </c>
       <c r="V32">
-        <v>-192</v>
+        <v>-13.935</v>
       </c>
       <c r="W32">
-        <v>-762</v>
+        <v>-131.333</v>
       </c>
       <c r="X32">
-        <v>1262</v>
+        <v>-13.356999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3292,42 +3412,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>754</v>
+        <v>228.964</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39750</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>619</v>
+        <v>276.70999999999998</v>
       </c>
       <c r="D33">
-        <v>6383</v>
+        <v>2537.0479999999998</v>
       </c>
       <c r="E33">
-        <v>2032</v>
+        <v>1226.299</v>
       </c>
       <c r="F33">
-        <v>2112</v>
+        <v>908.40300000000002</v>
       </c>
       <c r="G33">
-        <v>7590</v>
+        <v>3848.9580000000001</v>
       </c>
       <c r="H33">
-        <v>119730</v>
+        <v>10397.049000000001</v>
       </c>
       <c r="I33">
-        <v>4312</v>
+        <v>1231.0550000000001</v>
       </c>
       <c r="J33">
-        <v>30998</v>
+        <v>3933.1149999999998</v>
       </c>
       <c r="K33">
-        <v>973</v>
+        <v>1446.979</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3336,37 +3456,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>7581</v>
+        <v>3445.837</v>
       </c>
       <c r="O33">
-        <v>54152</v>
+        <v>8593.0480000000007</v>
       </c>
       <c r="P33">
-        <v>32376</v>
+        <v>5383.2349999999997</v>
       </c>
       <c r="Q33">
-        <v>-2008</v>
+        <v>373.30799999999999</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39750</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>65578</v>
+        <v>1804.001</v>
       </c>
       <c r="U33">
-        <v>1366</v>
+        <v>927.65599999999995</v>
       </c>
       <c r="V33">
-        <v>662</v>
+        <v>227.50200000000001</v>
       </c>
       <c r="W33">
-        <v>-762</v>
+        <v>-131.483</v>
       </c>
       <c r="X33">
-        <v>-2528</v>
+        <v>462.71800000000002</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3375,42 +3495,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>619</v>
+        <v>276.70999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39841</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>-12568</v>
+        <v>242.26300000000001</v>
       </c>
       <c r="D34">
-        <v>6891</v>
+        <v>2379.7109999999998</v>
       </c>
       <c r="E34">
-        <v>2129</v>
+        <v>1284.7860000000001</v>
       </c>
       <c r="F34">
-        <v>2239</v>
+        <v>850.71400000000006</v>
       </c>
       <c r="G34">
-        <v>9075</v>
+        <v>3543.7849999999999</v>
       </c>
       <c r="H34">
-        <v>103461</v>
+        <v>10265.549999999999</v>
       </c>
       <c r="I34">
-        <v>4153</v>
+        <v>1028.865</v>
       </c>
       <c r="J34">
-        <v>30770</v>
+        <v>4302.1670000000004</v>
       </c>
       <c r="K34">
-        <v>288</v>
+        <v>1576.0219999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3419,37 +3539,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7503</v>
+        <v>3412.826</v>
       </c>
       <c r="O34">
-        <v>51683</v>
+        <v>8910.6890000000003</v>
       </c>
       <c r="P34">
-        <v>31435</v>
+        <v>5882.8609999999999</v>
       </c>
       <c r="Q34">
-        <v>-231</v>
+        <v>-236.715</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39841</v>
       </c>
       <c r="S34">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>51778</v>
+        <v>1354.8610000000001</v>
       </c>
       <c r="U34">
-        <v>1130</v>
+        <v>690.94100000000003</v>
       </c>
       <c r="V34">
-        <v>1696</v>
+        <v>292.35000000000002</v>
       </c>
       <c r="W34">
-        <v>-762</v>
+        <v>-131.501</v>
       </c>
       <c r="X34">
-        <v>-1726</v>
+        <v>-87.873999999999995</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3458,208 +3578,208 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>-12568</v>
+        <v>242.26300000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39932</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>405</v>
+        <v>175.13499999999999</v>
       </c>
       <c r="D35">
-        <v>5959</v>
+        <v>2515.768</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>881.16399999999999</v>
       </c>
       <c r="F35">
-        <v>2020</v>
+        <v>875.72</v>
       </c>
       <c r="G35">
-        <v>8835</v>
+        <v>2945.0210000000002</v>
       </c>
       <c r="H35">
-        <v>103562</v>
+        <v>9664.1839999999993</v>
       </c>
       <c r="I35">
-        <v>4184</v>
+        <v>955.43</v>
       </c>
       <c r="J35">
-        <v>29636</v>
+        <v>5076.1859999999997</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>61.296999999999997</v>
       </c>
       <c r="L35">
-        <v>-377</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>7972</v>
+        <v>2062.846</v>
       </c>
       <c r="O35">
-        <v>51727</v>
+        <v>8385.0789999999997</v>
       </c>
       <c r="P35">
-        <v>31777</v>
+        <v>5141.8239999999996</v>
       </c>
       <c r="Q35">
-        <v>-34</v>
+        <v>-317.79599999999999</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39932</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="T35">
-        <v>51835</v>
+        <v>1279.105</v>
       </c>
       <c r="U35">
-        <v>1096</v>
+        <v>373.14499999999998</v>
       </c>
       <c r="V35">
-        <v>304</v>
+        <v>660.96500000000003</v>
       </c>
       <c r="W35">
-        <v>-488</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-504</v>
+        <v>-877.82299999999998</v>
       </c>
       <c r="Y35">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>405</v>
+        <v>175.13499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>40023</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>449</v>
+        <v>212.56399999999999</v>
       </c>
       <c r="D36">
-        <v>6406</v>
+        <v>2441.6849999999999</v>
       </c>
       <c r="E36">
-        <v>2049</v>
+        <v>756.452</v>
       </c>
       <c r="F36">
-        <v>2088</v>
+        <v>879.303</v>
       </c>
       <c r="G36">
-        <v>9168</v>
+        <v>3347.48</v>
       </c>
       <c r="H36">
-        <v>103201</v>
+        <v>10149.040999999999</v>
       </c>
       <c r="I36">
-        <v>4153</v>
+        <v>947.899</v>
       </c>
       <c r="J36">
-        <v>29671</v>
+        <v>5234.4679999999998</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>90.903999999999996</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-94.584000000000003</v>
       </c>
       <c r="N36">
-        <v>7797</v>
+        <v>2034.6780000000001</v>
       </c>
       <c r="O36">
-        <v>51524</v>
+        <v>8447.4330000000009</v>
       </c>
       <c r="P36">
-        <v>31766</v>
+        <v>5329.9709999999995</v>
       </c>
       <c r="Q36">
-        <v>356</v>
+        <v>177.55500000000001</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>40023</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>51677</v>
+        <v>1701.6079999999999</v>
       </c>
       <c r="U36">
-        <v>1452</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="V36">
-        <v>1021</v>
+        <v>168.86799999999999</v>
       </c>
       <c r="W36">
-        <v>-488</v>
+        <v>-132.95599999999999</v>
       </c>
       <c r="X36">
-        <v>-473</v>
+        <v>32.911999999999999</v>
       </c>
       <c r="Y36">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>449</v>
+        <v>212.56399999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40114</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>899</v>
+        <v>231.435</v>
       </c>
       <c r="D37">
-        <v>6076</v>
+        <v>2646.7860000000001</v>
       </c>
       <c r="E37">
-        <v>1959</v>
+        <v>806.05700000000002</v>
       </c>
       <c r="F37">
-        <v>1959</v>
+        <v>953.255</v>
       </c>
       <c r="G37">
-        <v>9125</v>
+        <v>3288.6970000000001</v>
       </c>
       <c r="H37">
-        <v>102822</v>
+        <v>10273.001</v>
       </c>
       <c r="I37">
-        <v>4156</v>
+        <v>1050.5889999999999</v>
       </c>
       <c r="J37">
-        <v>27955</v>
+        <v>4850.2870000000003</v>
       </c>
       <c r="K37">
-        <v>15</v>
+        <v>45.774999999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3668,81 +3788,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>9112</v>
+        <v>2131.326</v>
       </c>
       <c r="O37">
-        <v>51016</v>
+        <v>8267.4940000000006</v>
       </c>
       <c r="P37">
-        <v>31292</v>
+        <v>4903.6189999999997</v>
       </c>
       <c r="Q37">
-        <v>858</v>
+        <v>-90.116</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40114</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>51806</v>
+        <v>2005.5070000000001</v>
       </c>
       <c r="U37">
-        <v>2315</v>
+        <v>460.584</v>
       </c>
       <c r="V37">
-        <v>665</v>
+        <v>340.00799999999998</v>
       </c>
       <c r="W37">
-        <v>-488</v>
+        <v>-133.28399999999999</v>
       </c>
       <c r="X37">
-        <v>-904</v>
+        <v>-634.20500000000004</v>
       </c>
       <c r="Y37">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>899</v>
+        <v>231.435</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40205</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>182</v>
+        <v>228.52699999999999</v>
       </c>
       <c r="D38">
-        <v>6536</v>
+        <v>2681.7020000000002</v>
       </c>
       <c r="E38">
-        <v>1973</v>
+        <v>784.86500000000001</v>
       </c>
       <c r="F38">
-        <v>2128</v>
+        <v>1005.266</v>
       </c>
       <c r="G38">
-        <v>8097</v>
+        <v>3256.5740000000001</v>
       </c>
       <c r="H38">
-        <v>101450</v>
+        <v>10071.184999999999</v>
       </c>
       <c r="I38">
-        <v>4003</v>
+        <v>917.80399999999997</v>
       </c>
       <c r="J38">
-        <v>28058</v>
+        <v>4764.9409999999998</v>
       </c>
       <c r="K38">
-        <v>259</v>
+        <v>43.631999999999998</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3751,120 +3871,120 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>7875</v>
+        <v>2088.5149999999999</v>
       </c>
       <c r="O38">
-        <v>49701</v>
+        <v>8181.04</v>
       </c>
       <c r="P38">
-        <v>30098</v>
+        <v>4816.8119999999999</v>
       </c>
       <c r="Q38">
-        <v>-36</v>
+        <v>101.723</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40205</v>
       </c>
       <c r="S38">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>51749</v>
+        <v>1890.145</v>
       </c>
       <c r="U38">
-        <v>2279</v>
+        <v>562.30700000000002</v>
       </c>
       <c r="V38">
-        <v>1562</v>
+        <v>493.24599999999998</v>
       </c>
       <c r="W38">
-        <v>-489</v>
+        <v>-133.375</v>
       </c>
       <c r="X38">
-        <v>-2032</v>
+        <v>-264.26</v>
       </c>
       <c r="Y38">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>182</v>
+        <v>228.52699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40296</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>378</v>
+        <v>192.36600000000001</v>
       </c>
       <c r="D39">
-        <v>6157</v>
+        <v>2724.81</v>
       </c>
       <c r="E39">
-        <v>2321</v>
+        <v>794.84500000000003</v>
       </c>
       <c r="F39">
-        <v>1859</v>
+        <v>980.48199999999997</v>
       </c>
       <c r="G39">
-        <v>11708</v>
+        <v>3051.125</v>
       </c>
       <c r="H39">
-        <v>104073</v>
+        <v>10075.710999999999</v>
       </c>
       <c r="I39">
-        <v>3956</v>
+        <v>1007.5170000000001</v>
       </c>
       <c r="J39">
-        <v>31531</v>
+        <v>4567.5739999999996</v>
       </c>
       <c r="K39">
-        <v>220</v>
+        <v>43.853000000000002</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-407</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>7934</v>
+        <v>2175.3589999999999</v>
       </c>
       <c r="O39">
-        <v>52949</v>
+        <v>8127.2150000000001</v>
       </c>
       <c r="P39">
-        <v>32993</v>
+        <v>4630.1040000000003</v>
       </c>
       <c r="Q39">
-        <v>3124</v>
+        <v>-79.054000000000002</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40296</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="T39">
-        <v>51124</v>
+        <v>1948.4960000000001</v>
       </c>
       <c r="U39">
-        <v>5403</v>
+        <v>483.25299999999999</v>
       </c>
       <c r="V39">
-        <v>212</v>
+        <v>260.07499999999999</v>
       </c>
       <c r="W39">
-        <v>-488</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>3105</v>
+        <v>-282.363</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3873,81 +3993,81 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>378</v>
+        <v>192.36600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40387</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>-1651</v>
+        <v>240.42699999999999</v>
       </c>
       <c r="D40">
-        <v>6648</v>
+        <v>2480.8249999999998</v>
       </c>
       <c r="E40">
-        <v>2045</v>
+        <v>753.25099999999998</v>
       </c>
       <c r="F40">
-        <v>2450</v>
+        <v>907.97699999999998</v>
       </c>
       <c r="G40">
-        <v>8776</v>
+        <v>2972.7849999999999</v>
       </c>
       <c r="H40">
-        <v>98306</v>
+        <v>9928.0120000000006</v>
       </c>
       <c r="I40">
-        <v>3880</v>
+        <v>953.84799999999996</v>
       </c>
       <c r="J40">
-        <v>28097</v>
+        <v>3655.489</v>
       </c>
       <c r="K40">
-        <v>177</v>
+        <v>51.533000000000001</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-98.24</v>
       </c>
       <c r="N40">
-        <v>8050</v>
+        <v>2837.3919999999998</v>
       </c>
       <c r="O40">
-        <v>49141</v>
+        <v>7868.2510000000002</v>
       </c>
       <c r="P40">
-        <v>29031</v>
+        <v>4556.3999999999996</v>
       </c>
       <c r="Q40">
-        <v>-2591</v>
+        <v>11.256</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40387</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>49165</v>
+        <v>2059.761</v>
       </c>
       <c r="U40">
-        <v>2812</v>
+        <v>494.50900000000001</v>
       </c>
       <c r="V40">
-        <v>2004</v>
+        <v>272.40600000000001</v>
       </c>
       <c r="W40">
-        <v>-489</v>
+        <v>-143.726</v>
       </c>
       <c r="X40">
-        <v>-4542</v>
+        <v>-198.00700000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3956,42 +4076,42 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1651</v>
+        <v>240.42699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40478</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>597</v>
+        <v>251.435</v>
       </c>
       <c r="D41">
-        <v>6441</v>
+        <v>2614.623</v>
       </c>
       <c r="E41">
-        <v>1979</v>
+        <v>805.71100000000001</v>
       </c>
       <c r="F41">
-        <v>2341</v>
+        <v>966.62699999999995</v>
       </c>
       <c r="G41">
-        <v>10065</v>
+        <v>3322.05</v>
       </c>
       <c r="H41">
-        <v>98122</v>
+        <v>10441.504999999999</v>
       </c>
       <c r="I41">
-        <v>4052</v>
+        <v>1038.8910000000001</v>
       </c>
       <c r="J41">
-        <v>27882</v>
+        <v>3553.4380000000001</v>
       </c>
       <c r="K41">
-        <v>112</v>
+        <v>61.37</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4000,37 +4120,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>7694</v>
+        <v>3012.0859999999998</v>
       </c>
       <c r="O41">
-        <v>48783</v>
+        <v>7981.2629999999999</v>
       </c>
       <c r="P41">
-        <v>28523</v>
+        <v>4454.71</v>
       </c>
       <c r="Q41">
-        <v>-92</v>
+        <v>171.36199999999999</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40478</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>49339</v>
+        <v>2460.2420000000002</v>
       </c>
       <c r="U41">
-        <v>2720</v>
+        <v>665.87099999999998</v>
       </c>
       <c r="V41">
-        <v>1110</v>
+        <v>359.68099999999998</v>
       </c>
       <c r="W41">
-        <v>-490</v>
+        <v>-144.86600000000001</v>
       </c>
       <c r="X41">
-        <v>-1072</v>
+        <v>-168.083</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4039,89 +4159,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>597</v>
+        <v>251.435</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40569</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>273.78500000000003</v>
+      </c>
+      <c r="D42">
+        <v>2722.35</v>
+      </c>
+      <c r="E42">
+        <v>785.17</v>
+      </c>
+      <c r="F42">
+        <v>1028.2929999999999</v>
+      </c>
+      <c r="G42">
+        <v>3717.9969999999998</v>
+      </c>
+      <c r="H42">
+        <v>11093.076999999999</v>
+      </c>
+      <c r="I42">
+        <v>1076.367</v>
+      </c>
+      <c r="J42">
+        <v>3749.9630000000002</v>
+      </c>
+      <c r="K42">
+        <v>68.656999999999996</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3136.5709999999999</v>
+      </c>
+      <c r="O42">
+        <v>8381.1149999999998</v>
+      </c>
+      <c r="P42">
+        <v>4650.3459999999995</v>
+      </c>
+      <c r="Q42">
+        <v>386.16399999999999</v>
+      </c>
+      <c r="R42">
+        <v>40569</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2711.962</v>
+      </c>
+      <c r="U42">
+        <v>1052.0350000000001</v>
+      </c>
+      <c r="V42">
+        <v>509.46800000000002</v>
+      </c>
+      <c r="W42">
+        <v>-145.49299999999999</v>
+      </c>
+      <c r="X42">
+        <v>109.105</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>273.78500000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40660</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>223.863</v>
+      </c>
+      <c r="D43">
+        <v>2888.79</v>
+      </c>
+      <c r="E43">
+        <v>1039.0640000000001</v>
+      </c>
+      <c r="F43">
+        <v>1049.643</v>
+      </c>
+      <c r="G43">
+        <v>3753.5419999999999</v>
+      </c>
+      <c r="H43">
+        <v>12230.645</v>
+      </c>
+      <c r="I43">
+        <v>1337.62</v>
+      </c>
+      <c r="J43">
+        <v>3078.1280000000002</v>
+      </c>
+      <c r="K43">
+        <v>87.8</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4161.46</v>
+      </c>
+      <c r="O43">
+        <v>8923.51</v>
+      </c>
+      <c r="P43">
+        <v>4619.1850000000004</v>
+      </c>
+      <c r="Q43">
+        <v>-327.72399999999999</v>
+      </c>
+      <c r="R43">
+        <v>40660</v>
+      </c>
+      <c r="S43">
+        <v>34800</v>
+      </c>
+      <c r="T43">
+        <v>3307.1350000000002</v>
+      </c>
+      <c r="U43">
+        <v>724.31100000000004</v>
+      </c>
+      <c r="V43">
+        <v>442.08800000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-225.524</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>223.863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40751</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>226.114</v>
+      </c>
+      <c r="D44">
+        <v>2832.598</v>
+      </c>
+      <c r="E44">
+        <v>896.42200000000003</v>
+      </c>
+      <c r="F44">
+        <v>1015.022</v>
+      </c>
+      <c r="G44">
+        <v>3627.373</v>
+      </c>
+      <c r="H44">
+        <v>12083.502</v>
+      </c>
+      <c r="I44">
+        <v>1176.652</v>
+      </c>
+      <c r="J44">
+        <v>3940.8209999999999</v>
+      </c>
+      <c r="K44">
+        <v>95.756</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-806.28200000000004</v>
+      </c>
+      <c r="N44">
+        <v>3095.6689999999999</v>
+      </c>
+      <c r="O44">
+        <v>8733.9339999999993</v>
+      </c>
+      <c r="P44">
+        <v>4683.0680000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-46.582999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40751</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3349.5680000000002</v>
+      </c>
+      <c r="U44">
+        <v>677.72799999999995</v>
+      </c>
+      <c r="V44">
+        <v>164.79</v>
+      </c>
+      <c r="W44">
+        <v>-155.08099999999999</v>
+      </c>
+      <c r="X44">
+        <v>-120.68899999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>226.114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>237.00899999999999</v>
+      </c>
+      <c r="D45">
+        <v>2788.3789999999999</v>
+      </c>
+      <c r="E45">
+        <v>863.42100000000005</v>
+      </c>
+      <c r="F45">
+        <v>994.29600000000005</v>
+      </c>
+      <c r="G45">
+        <v>3821.9920000000002</v>
+      </c>
+      <c r="H45">
+        <v>12106.197</v>
+      </c>
+      <c r="I45">
+        <v>1219.3530000000001</v>
+      </c>
+      <c r="J45">
+        <v>4184.741</v>
+      </c>
+      <c r="K45">
+        <v>38.756</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3264.28</v>
+      </c>
+      <c r="O45">
+        <v>9110.5969999999998</v>
+      </c>
+      <c r="P45">
+        <v>5057.3410000000003</v>
+      </c>
+      <c r="Q45">
+        <v>180.279</v>
+      </c>
+      <c r="R45">
+        <v>40842</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2995.6</v>
+      </c>
+      <c r="U45">
+        <v>858.00699999999995</v>
+      </c>
+      <c r="V45">
+        <v>232.72399999999999</v>
+      </c>
+      <c r="W45">
+        <v>-155.48400000000001</v>
+      </c>
+      <c r="X45">
+        <v>96.906999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>237.00899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40933</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>284.69400000000002</v>
+      </c>
+      <c r="D46">
+        <v>2874.9270000000001</v>
+      </c>
+      <c r="E46">
+        <v>893.79899999999998</v>
+      </c>
+      <c r="F46">
+        <v>1055.816</v>
+      </c>
+      <c r="G46">
+        <v>3718.1590000000001</v>
+      </c>
+      <c r="H46">
+        <v>11961.502</v>
+      </c>
+      <c r="I46">
+        <v>1096.69</v>
+      </c>
+      <c r="J46">
+        <v>4177.902</v>
+      </c>
+      <c r="K46">
+        <v>31.361000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3112.7620000000002</v>
+      </c>
+      <c r="O46">
+        <v>8945.9680000000008</v>
+      </c>
+      <c r="P46">
+        <v>5028.143</v>
+      </c>
+      <c r="Q46">
+        <v>-9.0960000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40933</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3015.5340000000001</v>
+      </c>
+      <c r="U46">
+        <v>848.91099999999994</v>
+      </c>
+      <c r="V46">
+        <v>346</v>
+      </c>
+      <c r="W46">
+        <v>-154.33600000000001</v>
+      </c>
+      <c r="X46">
+        <v>-195.44300000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>47.975999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>284.69400000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>175.34200000000001</v>
+      </c>
+      <c r="D47">
+        <v>3011.6680000000001</v>
+      </c>
+      <c r="E47">
+        <v>815.6</v>
+      </c>
+      <c r="F47">
+        <v>1059.5930000000001</v>
+      </c>
+      <c r="G47">
+        <v>3882.2359999999999</v>
+      </c>
+      <c r="H47">
+        <v>11983.293</v>
+      </c>
+      <c r="I47">
+        <v>1202.3979999999999</v>
+      </c>
+      <c r="J47">
+        <v>4779.9809999999998</v>
+      </c>
+      <c r="K47">
+        <v>46.46</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2647.9609999999998</v>
+      </c>
+      <c r="O47">
+        <v>9058.7119999999995</v>
+      </c>
+      <c r="P47">
+        <v>5029.4489999999996</v>
+      </c>
+      <c r="Q47">
+        <v>481.53</v>
+      </c>
+      <c r="R47">
+        <v>41028</v>
+      </c>
+      <c r="S47">
+        <v>32200</v>
+      </c>
+      <c r="T47">
+        <v>2924.5810000000001</v>
+      </c>
+      <c r="U47">
+        <v>1330.441</v>
+      </c>
+      <c r="V47">
+        <v>749.60299999999995</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-143.61000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="AA47">
+        <v>175.34200000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>258.02699999999999</v>
+      </c>
+      <c r="D48">
+        <v>2783.451</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1001.944</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-200.21</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-351.90499999999997</v>
+      </c>
+      <c r="R48">
+        <v>41119</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>49.034999999999997</v>
+      </c>
+      <c r="W48">
+        <v>-165.56899999999999</v>
+      </c>
+      <c r="X48">
+        <v>-242.52099999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>258.02699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>2821.5340000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1013.0170000000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>41210</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>289.44400000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>269.54599999999999</v>
+      </c>
+      <c r="D50">
+        <v>2933.3310000000001</v>
+      </c>
+      <c r="E50">
+        <v>896.41499999999996</v>
+      </c>
+      <c r="F50">
+        <v>1106.5150000000001</v>
+      </c>
+      <c r="G50">
+        <v>3908.8719999999998</v>
+      </c>
+      <c r="H50">
+        <v>11929.103999999999</v>
+      </c>
+      <c r="I50">
+        <v>1129.6510000000001</v>
+      </c>
+      <c r="J50">
+        <v>3955.866</v>
+      </c>
+      <c r="K50">
+        <v>14.747</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3376.3490000000002</v>
+      </c>
+      <c r="O50">
+        <v>8819.2800000000007</v>
+      </c>
+      <c r="P50">
+        <v>5031.5129999999999</v>
+      </c>
+      <c r="Q50">
+        <v>93.486999999999995</v>
+      </c>
+      <c r="R50">
+        <v>41301</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3109.8240000000001</v>
+      </c>
+      <c r="U50">
+        <v>1100.6890000000001</v>
+      </c>
+      <c r="V50">
+        <v>385.64400000000001</v>
+      </c>
+      <c r="W50">
+        <v>-166.32900000000001</v>
+      </c>
+      <c r="X50">
+        <v>-227.67500000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>269.54599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>177.749</v>
+      </c>
+      <c r="D51">
+        <v>2856.2449999999999</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1030.8620000000001</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-309.83100000000002</v>
+      </c>
+      <c r="M51">
+        <v>-7.1289999999999996</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-239.94499999999999</v>
+      </c>
+      <c r="R51">
+        <v>41357</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>490.428</v>
+      </c>
+      <c r="W51">
+        <v>-165.601</v>
+      </c>
+      <c r="X51">
+        <v>-524.79999999999995</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>177.749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>-117.199</v>
+      </c>
+      <c r="D52">
+        <v>2850.8789999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1032.7470000000001</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>3227.3649999999998</v>
+      </c>
+      <c r="R52">
+        <v>41448</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>59.402000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-166.053</v>
+      </c>
+      <c r="X52">
+        <v>25406.646000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-123.892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53">
+        <v>-9.4039999999999999</v>
+      </c>
+      <c r="D53">
+        <v>2646.5770000000002</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>940.15800000000002</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-668.36300000000006</v>
+      </c>
+      <c r="R53">
+        <v>41539</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>-74.581000000000003</v>
+      </c>
+      <c r="W53">
+        <v>-180</v>
+      </c>
+      <c r="X53">
+        <v>-1067.059</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>-11.766999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <v>-447.14600000000002</v>
+      </c>
+      <c r="D54">
+        <v>2675.799</v>
+      </c>
+      <c r="E54">
+        <v>1100</v>
+      </c>
+      <c r="F54">
+        <v>883.07050000000004</v>
+      </c>
+      <c r="G54">
+        <v>5444</v>
+      </c>
+      <c r="H54">
+        <v>38972</v>
+      </c>
+      <c r="I54">
+        <v>1192</v>
+      </c>
+      <c r="J54">
+        <v>14618</v>
+      </c>
+      <c r="K54">
+        <v>144</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2925</v>
+      </c>
+      <c r="O54">
+        <v>22430</v>
+      </c>
+      <c r="P54">
+        <v>14870</v>
+      </c>
+      <c r="Q54">
+        <v>758.94299999999998</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>28700</v>
+      </c>
+      <c r="T54">
+        <v>16542</v>
+      </c>
+      <c r="U54">
+        <v>2459</v>
+      </c>
+      <c r="V54">
+        <v>-982.24900000000002</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>12477.713</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-450.09100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>195</v>
+      </c>
+      <c r="D55">
+        <v>2800</v>
+      </c>
+      <c r="E55">
+        <v>1106.3040000000001</v>
+      </c>
+      <c r="F55">
+        <v>1073</v>
+      </c>
+      <c r="G55">
+        <v>5611.9229999999998</v>
+      </c>
+      <c r="H55">
+        <v>38961.675000000003</v>
+      </c>
+      <c r="I55">
+        <v>1294.5119999999999</v>
+      </c>
+      <c r="J55">
+        <v>14593.433999999999</v>
+      </c>
+      <c r="K55">
+        <v>130.72900000000001</v>
+      </c>
+      <c r="L55">
+        <v>-13</v>
+      </c>
+      <c r="M55">
+        <v>-25</v>
+      </c>
+      <c r="N55">
+        <v>2959.3069999999998</v>
+      </c>
+      <c r="O55">
+        <v>22461.178</v>
+      </c>
+      <c r="P55">
+        <v>14831.374</v>
+      </c>
+      <c r="Q55">
+        <v>55</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>16500.496999999999</v>
+      </c>
+      <c r="U55">
+        <v>2515.232</v>
+      </c>
+      <c r="V55">
+        <v>302</v>
+      </c>
+      <c r="W55">
+        <v>-180</v>
+      </c>
+      <c r="X55">
+        <v>-218</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>2729</v>
+      </c>
+      <c r="E56">
+        <v>956.78300000000002</v>
+      </c>
+      <c r="F56">
+        <v>1054</v>
+      </c>
+      <c r="G56">
+        <v>5610.0640000000003</v>
+      </c>
+      <c r="H56">
+        <v>38767.332000000002</v>
+      </c>
+      <c r="I56">
+        <v>1266.807</v>
+      </c>
+      <c r="J56">
+        <v>14571.638000000001</v>
+      </c>
+      <c r="K56">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2942.5830000000001</v>
+      </c>
+      <c r="O56">
+        <v>22303.054</v>
+      </c>
+      <c r="P56">
+        <v>14679.107</v>
+      </c>
+      <c r="Q56">
+        <v>291</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>16464.277999999998</v>
+      </c>
+      <c r="U56">
+        <v>2804.9169999999999</v>
+      </c>
+      <c r="V56">
+        <v>545</v>
+      </c>
+      <c r="W56">
+        <v>-180</v>
+      </c>
+      <c r="X56">
+        <v>-191</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>172</v>
+      </c>
+      <c r="D57">
+        <v>2594</v>
+      </c>
+      <c r="E57">
+        <v>812.03800000000001</v>
+      </c>
+      <c r="F57">
+        <v>876</v>
+      </c>
+      <c r="G57">
+        <v>5635.9780000000001</v>
+      </c>
+      <c r="H57">
+        <v>38055.415999999997</v>
+      </c>
+      <c r="I57">
+        <v>1394.231</v>
+      </c>
+      <c r="J57">
+        <v>14530.43</v>
+      </c>
+      <c r="K57">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2905.3220000000001</v>
+      </c>
+      <c r="O57">
+        <v>22038.832999999999</v>
+      </c>
+      <c r="P57">
+        <v>14639.871999999999</v>
+      </c>
+      <c r="Q57">
+        <v>49</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>16016.583000000001</v>
+      </c>
+      <c r="U57">
+        <v>2854.1089999999999</v>
+      </c>
+      <c r="V57">
+        <v>484</v>
+      </c>
+      <c r="W57">
+        <v>-180</v>
+      </c>
+      <c r="X57">
+        <v>-201</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>163</v>
+      </c>
+      <c r="D58">
+        <v>2799</v>
+      </c>
+      <c r="E58">
+        <v>851</v>
+      </c>
+      <c r="F58">
+        <v>1032</v>
+      </c>
+      <c r="G58">
+        <v>4915</v>
+      </c>
+      <c r="H58">
+        <v>36571</v>
+      </c>
+      <c r="I58">
+        <v>1651</v>
+      </c>
+      <c r="J58">
+        <v>13358</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3092</v>
+      </c>
+      <c r="O58">
+        <v>20886</v>
+      </c>
+      <c r="P58">
+        <v>13369</v>
+      </c>
+      <c r="Q58">
+        <v>-556</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>24500</v>
+      </c>
+      <c r="T58">
+        <v>15685</v>
+      </c>
+      <c r="U58">
+        <v>2298</v>
+      </c>
+      <c r="V58">
+        <v>809</v>
+      </c>
+      <c r="W58">
+        <v>-180</v>
+      </c>
+      <c r="X58">
+        <v>-1210</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59">
+        <v>276</v>
+      </c>
+      <c r="D59">
+        <v>2478</v>
+      </c>
+      <c r="E59">
+        <v>818</v>
+      </c>
+      <c r="F59">
+        <v>877</v>
+      </c>
+      <c r="G59">
+        <v>4477</v>
+      </c>
+      <c r="H59">
+        <v>36293</v>
+      </c>
+      <c r="I59">
+        <v>1499</v>
+      </c>
+      <c r="J59">
+        <v>13718</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1962</v>
+      </c>
+      <c r="N59">
+        <v>2532</v>
+      </c>
+      <c r="O59">
+        <v>20931</v>
+      </c>
+      <c r="P59">
+        <v>13729</v>
+      </c>
+      <c r="Q59">
+        <v>-399</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>15362</v>
+      </c>
+      <c r="U59">
+        <v>1899</v>
+      </c>
+      <c r="V59">
+        <v>-83</v>
+      </c>
+      <c r="W59">
+        <v>-180</v>
+      </c>
+      <c r="X59">
+        <v>-214</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>-164</v>
+      </c>
+      <c r="D60">
+        <v>2616</v>
+      </c>
+      <c r="E60">
+        <v>795</v>
+      </c>
+      <c r="F60">
+        <v>928</v>
+      </c>
+      <c r="G60">
+        <v>4589</v>
+      </c>
+      <c r="H60">
+        <v>36062</v>
+      </c>
+      <c r="I60">
+        <v>1509</v>
+      </c>
+      <c r="J60">
+        <v>13638</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2653</v>
+      </c>
+      <c r="O60">
+        <v>20761</v>
+      </c>
+      <c r="P60">
+        <v>13650</v>
+      </c>
+      <c r="Q60">
+        <v>248</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>15301</v>
+      </c>
+      <c r="U60">
+        <v>2147</v>
+      </c>
+      <c r="V60">
+        <v>494</v>
+      </c>
+      <c r="W60">
+        <v>-180</v>
+      </c>
+      <c r="X60">
+        <v>-165</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>-123</v>
+      </c>
+      <c r="D61">
+        <v>6120</v>
+      </c>
+      <c r="E61">
+        <v>1613</v>
+      </c>
+      <c r="F61">
+        <v>1787</v>
+      </c>
+      <c r="G61">
+        <v>10411</v>
+      </c>
+      <c r="H61">
+        <v>121792</v>
+      </c>
+      <c r="I61">
+        <v>2719</v>
+      </c>
+      <c r="J61">
+        <v>25250</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5746</v>
+      </c>
+      <c r="O61">
+        <v>54433</v>
+      </c>
+      <c r="P61">
+        <v>25324</v>
+      </c>
+      <c r="Q61">
+        <v>2290</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>67359</v>
+      </c>
+      <c r="U61">
+        <v>4437</v>
+      </c>
+      <c r="V61">
+        <v>335</v>
+      </c>
+      <c r="W61">
+        <v>-817</v>
+      </c>
+      <c r="X61">
+        <v>11570</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62">
+        <v>645</v>
+      </c>
+      <c r="D62">
+        <v>7124</v>
+      </c>
+      <c r="E62">
+        <v>1454</v>
+      </c>
+      <c r="F62">
+        <v>3050</v>
+      </c>
+      <c r="G62">
+        <v>9780</v>
+      </c>
+      <c r="H62">
+        <v>122973</v>
+      </c>
+      <c r="I62">
+        <v>2844</v>
+      </c>
+      <c r="J62">
+        <v>25151</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>6932</v>
+      </c>
+      <c r="O62">
+        <v>56737</v>
+      </c>
+      <c r="P62">
+        <v>25234</v>
+      </c>
+      <c r="Q62">
+        <v>400</v>
+      </c>
+      <c r="R62">
+        <v>42372</v>
+      </c>
+      <c r="S62">
+        <v>42000</v>
+      </c>
+      <c r="T62">
+        <v>66236</v>
+      </c>
+      <c r="U62">
+        <v>4837</v>
+      </c>
+      <c r="V62">
+        <v>1721</v>
+      </c>
+      <c r="W62">
+        <v>-1025</v>
+      </c>
+      <c r="X62">
+        <v>-1008</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>896</v>
+      </c>
+      <c r="D63">
+        <v>6570</v>
+      </c>
+      <c r="E63">
+        <v>1744</v>
+      </c>
+      <c r="F63">
+        <v>2559</v>
+      </c>
+      <c r="G63">
+        <v>9812</v>
+      </c>
+      <c r="H63">
+        <v>123273</v>
+      </c>
+      <c r="I63">
+        <v>2773</v>
+      </c>
+      <c r="J63">
+        <v>25167</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>6730</v>
+      </c>
+      <c r="O63">
+        <v>56673</v>
+      </c>
+      <c r="P63">
+        <v>25167</v>
+      </c>
+      <c r="Q63">
+        <v>-606</v>
+      </c>
+      <c r="R63">
+        <v>42463</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>66600</v>
+      </c>
+      <c r="U63">
+        <v>4199</v>
+      </c>
+      <c r="V63">
+        <v>-156</v>
+      </c>
+      <c r="W63">
+        <v>-667</v>
+      </c>
+      <c r="X63">
+        <v>-627</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>950</v>
+      </c>
+      <c r="D64">
+        <v>6793</v>
+      </c>
+      <c r="E64">
+        <v>1260</v>
+      </c>
+      <c r="F64">
+        <v>2783</v>
+      </c>
+      <c r="G64">
+        <v>9347</v>
+      </c>
+      <c r="H64">
+        <v>121684</v>
+      </c>
+      <c r="I64">
+        <v>2960</v>
+      </c>
+      <c r="J64">
+        <v>30002</v>
+      </c>
+      <c r="K64">
+        <v>645</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>9593</v>
+      </c>
+      <c r="O64">
+        <v>63637</v>
+      </c>
+      <c r="P64">
+        <v>32753</v>
+      </c>
+      <c r="Q64">
+        <v>70</v>
+      </c>
+      <c r="R64">
+        <v>42554</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>58047</v>
+      </c>
+      <c r="U64">
+        <v>4237</v>
+      </c>
+      <c r="V64">
+        <v>1055</v>
+      </c>
+      <c r="W64">
+        <v>-847</v>
+      </c>
+      <c r="X64">
+        <v>-1562</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>842</v>
+      </c>
+      <c r="D65">
+        <v>6267</v>
+      </c>
+      <c r="E65">
+        <v>1063</v>
+      </c>
+      <c r="F65">
+        <v>2370</v>
+      </c>
+      <c r="G65">
+        <v>8943</v>
+      </c>
+      <c r="H65">
+        <v>121080</v>
+      </c>
+      <c r="I65">
+        <v>3456</v>
+      </c>
+      <c r="J65">
+        <v>29980</v>
+      </c>
+      <c r="K65">
+        <v>653</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>9414</v>
+      </c>
+      <c r="O65">
+        <v>63212</v>
+      </c>
+      <c r="P65">
+        <v>32680</v>
+      </c>
+      <c r="Q65">
+        <v>-405</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>57868</v>
+      </c>
+      <c r="U65">
+        <v>3920</v>
+      </c>
+      <c r="V65">
+        <v>117</v>
+      </c>
+      <c r="W65">
+        <v>-789</v>
+      </c>
+      <c r="X65">
+        <v>-835</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66">
+        <v>944</v>
+      </c>
+      <c r="D66">
+        <v>6857</v>
+      </c>
+      <c r="E66">
+        <v>898</v>
+      </c>
+      <c r="F66">
+        <v>2640</v>
+      </c>
+      <c r="G66">
+        <v>8753</v>
+      </c>
+      <c r="H66">
+        <v>120480</v>
+      </c>
+      <c r="I66">
+        <v>3996</v>
+      </c>
+      <c r="J66">
+        <v>29713</v>
+      </c>
+      <c r="K66">
+        <v>645</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>9501</v>
+      </c>
+      <c r="O66">
+        <v>62906</v>
+      </c>
+      <c r="P66">
+        <v>32404</v>
+      </c>
+      <c r="Q66">
+        <v>284</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>41000</v>
+      </c>
+      <c r="T66">
+        <v>57574</v>
+      </c>
+      <c r="U66">
+        <v>4204</v>
+      </c>
+      <c r="V66">
+        <v>1633</v>
+      </c>
+      <c r="W66">
+        <v>-1461</v>
+      </c>
+      <c r="X66">
+        <v>-1597</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <v>893</v>
+      </c>
+      <c r="D67">
+        <v>6324</v>
+      </c>
+      <c r="E67">
+        <v>1474</v>
+      </c>
+      <c r="F67">
+        <v>2295</v>
+      </c>
+      <c r="G67">
+        <v>8875</v>
+      </c>
+      <c r="H67">
+        <v>120802</v>
+      </c>
+      <c r="I67">
+        <v>3936</v>
+      </c>
+      <c r="J67">
+        <v>29748</v>
+      </c>
+      <c r="K67">
+        <v>909</v>
+      </c>
+      <c r="L67">
+        <v>-2068</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>9383</v>
+      </c>
+      <c r="O67">
+        <v>62858</v>
+      </c>
+      <c r="P67">
+        <v>32680</v>
+      </c>
+      <c r="Q67">
+        <v>-973</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>57944</v>
+      </c>
+      <c r="U67">
+        <v>3242</v>
+      </c>
+      <c r="V67">
+        <v>-615</v>
+      </c>
+      <c r="W67">
+        <v>-736</v>
+      </c>
+      <c r="X67">
+        <v>-505</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68">
+        <v>1159</v>
+      </c>
+      <c r="D68">
+        <v>6637</v>
+      </c>
+      <c r="E68">
+        <v>1434</v>
+      </c>
+      <c r="F68">
+        <v>2516</v>
+      </c>
+      <c r="G68">
+        <v>7108</v>
+      </c>
+      <c r="H68">
+        <v>119416</v>
+      </c>
+      <c r="I68">
+        <v>3888</v>
+      </c>
+      <c r="J68">
+        <v>29979</v>
+      </c>
+      <c r="K68">
+        <v>1090</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>7356</v>
+      </c>
+      <c r="O68">
+        <v>60870</v>
+      </c>
+      <c r="P68">
+        <v>31088</v>
+      </c>
+      <c r="Q68">
+        <v>-1764</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>58546</v>
+      </c>
+      <c r="U68">
+        <v>1445</v>
+      </c>
+      <c r="V68">
+        <v>437</v>
+      </c>
+      <c r="W68">
+        <v>-698</v>
+      </c>
+      <c r="X68">
+        <v>-2506</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69">
+        <v>944</v>
+      </c>
+      <c r="D69">
+        <v>6280</v>
+      </c>
+      <c r="E69">
+        <v>1365</v>
+      </c>
+      <c r="F69">
+        <v>2288</v>
+      </c>
+      <c r="G69">
+        <v>7228</v>
+      </c>
+      <c r="H69">
+        <v>120051</v>
+      </c>
+      <c r="I69">
+        <v>3947</v>
+      </c>
+      <c r="J69">
+        <v>28299</v>
+      </c>
+      <c r="K69">
+        <v>455</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>9387</v>
+      </c>
+      <c r="O69">
+        <v>61080</v>
+      </c>
+      <c r="P69">
+        <v>31509</v>
+      </c>
+      <c r="Q69">
+        <v>31</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>58971</v>
+      </c>
+      <c r="U69">
+        <v>1441</v>
+      </c>
+      <c r="V69">
+        <v>194</v>
+      </c>
+      <c r="W69">
+        <v>-727</v>
+      </c>
+      <c r="X69">
+        <v>-478</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70">
+        <v>7945</v>
+      </c>
+      <c r="D70">
+        <v>6835</v>
+      </c>
+      <c r="E70">
+        <v>1274</v>
+      </c>
+      <c r="F70">
+        <v>2398</v>
+      </c>
+      <c r="G70">
+        <v>7201</v>
+      </c>
+      <c r="H70">
+        <v>120092</v>
+      </c>
+      <c r="I70">
+        <v>4362</v>
+      </c>
+      <c r="J70">
+        <v>28224</v>
+      </c>
+      <c r="K70">
+        <v>462</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>10154</v>
+      </c>
+      <c r="O70">
+        <v>54016</v>
+      </c>
+      <c r="P70">
+        <v>31503</v>
+      </c>
+      <c r="Q70">
+        <v>220</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>39000</v>
+      </c>
+      <c r="T70">
+        <v>66076</v>
+      </c>
+      <c r="U70">
+        <v>1629</v>
+      </c>
+      <c r="V70">
+        <v>485</v>
+      </c>
+      <c r="W70">
+        <v>-727</v>
+      </c>
+      <c r="X70">
+        <v>-732</v>
+      </c>
+      <c r="Y70">
+        <v>84</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71">
+        <v>1003</v>
+      </c>
+      <c r="D71">
+        <v>6304</v>
+      </c>
+      <c r="E71">
+        <v>1574</v>
+      </c>
+      <c r="F71">
+        <v>2342</v>
+      </c>
+      <c r="G71">
+        <v>7437</v>
+      </c>
+      <c r="H71">
+        <v>120787</v>
+      </c>
+      <c r="I71">
+        <v>4241</v>
+      </c>
+      <c r="J71">
+        <v>28561</v>
+      </c>
+      <c r="K71">
+        <v>1001</v>
+      </c>
+      <c r="L71">
+        <v>-1006</v>
+      </c>
+      <c r="M71">
+        <v>-6</v>
+      </c>
+      <c r="N71">
+        <v>10329</v>
+      </c>
+      <c r="O71">
+        <v>54324</v>
+      </c>
+      <c r="P71">
+        <v>32304</v>
+      </c>
+      <c r="Q71">
+        <v>31</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>66463</v>
+      </c>
+      <c r="U71">
+        <v>1794</v>
+      </c>
+      <c r="V71">
+        <v>408</v>
+      </c>
+      <c r="W71">
+        <v>-897</v>
+      </c>
+      <c r="X71">
+        <v>-371</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72">
+        <v>754</v>
+      </c>
+      <c r="D72">
+        <v>6690</v>
+      </c>
+      <c r="E72">
+        <v>1987</v>
+      </c>
+      <c r="F72">
+        <v>2426</v>
+      </c>
+      <c r="G72">
+        <v>9501</v>
+      </c>
+      <c r="H72">
+        <v>121896</v>
+      </c>
+      <c r="I72">
+        <v>4326</v>
+      </c>
+      <c r="J72">
+        <v>31380</v>
+      </c>
+      <c r="K72">
+        <v>34</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>9091</v>
+      </c>
+      <c r="O72">
+        <v>56024</v>
+      </c>
+      <c r="P72">
+        <v>34168</v>
+      </c>
+      <c r="Q72">
+        <v>1575</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>65872</v>
+      </c>
+      <c r="U72">
+        <v>3369</v>
+      </c>
+      <c r="V72">
+        <v>-192</v>
+      </c>
+      <c r="W72">
+        <v>-762</v>
+      </c>
+      <c r="X72">
+        <v>1262</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73">
+        <v>619</v>
+      </c>
+      <c r="D73">
+        <v>6383</v>
+      </c>
+      <c r="E73">
+        <v>2032</v>
+      </c>
+      <c r="F73">
+        <v>2112</v>
+      </c>
+      <c r="G73">
+        <v>7590</v>
+      </c>
+      <c r="H73">
+        <v>119730</v>
+      </c>
+      <c r="I73">
+        <v>4312</v>
+      </c>
+      <c r="J73">
+        <v>30998</v>
+      </c>
+      <c r="K73">
+        <v>973</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>7581</v>
+      </c>
+      <c r="O73">
+        <v>54152</v>
+      </c>
+      <c r="P73">
+        <v>32376</v>
+      </c>
+      <c r="Q73">
+        <v>-2008</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>65578</v>
+      </c>
+      <c r="U73">
+        <v>1366</v>
+      </c>
+      <c r="V73">
+        <v>662</v>
+      </c>
+      <c r="W73">
+        <v>-762</v>
+      </c>
+      <c r="X73">
+        <v>-2528</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74">
+        <v>-12568</v>
+      </c>
+      <c r="D74">
+        <v>6891</v>
+      </c>
+      <c r="E74">
+        <v>2129</v>
+      </c>
+      <c r="F74">
+        <v>2239</v>
+      </c>
+      <c r="G74">
+        <v>9075</v>
+      </c>
+      <c r="H74">
+        <v>103461</v>
+      </c>
+      <c r="I74">
+        <v>4153</v>
+      </c>
+      <c r="J74">
+        <v>30770</v>
+      </c>
+      <c r="K74">
+        <v>288</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7503</v>
+      </c>
+      <c r="O74">
+        <v>51683</v>
+      </c>
+      <c r="P74">
+        <v>31435</v>
+      </c>
+      <c r="Q74">
+        <v>-231</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>38000</v>
+      </c>
+      <c r="T74">
+        <v>51778</v>
+      </c>
+      <c r="U74">
+        <v>1130</v>
+      </c>
+      <c r="V74">
+        <v>1696</v>
+      </c>
+      <c r="W74">
+        <v>-762</v>
+      </c>
+      <c r="X74">
+        <v>-1726</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-12568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75">
+        <v>405</v>
+      </c>
+      <c r="D75">
+        <v>5959</v>
+      </c>
+      <c r="E75">
+        <v>2010</v>
+      </c>
+      <c r="F75">
+        <v>2020</v>
+      </c>
+      <c r="G75">
+        <v>8835</v>
+      </c>
+      <c r="H75">
+        <v>103562</v>
+      </c>
+      <c r="I75">
+        <v>4184</v>
+      </c>
+      <c r="J75">
+        <v>29636</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>-377</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="N75">
+        <v>7972</v>
+      </c>
+      <c r="O75">
+        <v>51727</v>
+      </c>
+      <c r="P75">
+        <v>31777</v>
+      </c>
+      <c r="Q75">
+        <v>-34</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>51835</v>
+      </c>
+      <c r="U75">
+        <v>1096</v>
+      </c>
+      <c r="V75">
+        <v>304</v>
+      </c>
+      <c r="W75">
+        <v>-488</v>
+      </c>
+      <c r="X75">
+        <v>-504</v>
+      </c>
+      <c r="Y75">
+        <v>670</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>449</v>
+      </c>
+      <c r="D76">
+        <v>6406</v>
+      </c>
+      <c r="E76">
+        <v>2049</v>
+      </c>
+      <c r="F76">
+        <v>2088</v>
+      </c>
+      <c r="G76">
+        <v>9168</v>
+      </c>
+      <c r="H76">
+        <v>103201</v>
+      </c>
+      <c r="I76">
+        <v>4153</v>
+      </c>
+      <c r="J76">
+        <v>29671</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7797</v>
+      </c>
+      <c r="O76">
+        <v>51524</v>
+      </c>
+      <c r="P76">
+        <v>31766</v>
+      </c>
+      <c r="Q76">
+        <v>356</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>51677</v>
+      </c>
+      <c r="U76">
+        <v>1452</v>
+      </c>
+      <c r="V76">
+        <v>1021</v>
+      </c>
+      <c r="W76">
+        <v>-488</v>
+      </c>
+      <c r="X76">
+        <v>-473</v>
+      </c>
+      <c r="Y76">
+        <v>638</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77">
+        <v>899</v>
+      </c>
+      <c r="D77">
+        <v>6076</v>
+      </c>
+      <c r="E77">
+        <v>1959</v>
+      </c>
+      <c r="F77">
+        <v>1959</v>
+      </c>
+      <c r="G77">
+        <v>9125</v>
+      </c>
+      <c r="H77">
+        <v>102822</v>
+      </c>
+      <c r="I77">
+        <v>4156</v>
+      </c>
+      <c r="J77">
+        <v>27955</v>
+      </c>
+      <c r="K77">
+        <v>15</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>9112</v>
+      </c>
+      <c r="O77">
+        <v>51016</v>
+      </c>
+      <c r="P77">
+        <v>31292</v>
+      </c>
+      <c r="Q77">
+        <v>858</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>51806</v>
+      </c>
+      <c r="U77">
+        <v>2315</v>
+      </c>
+      <c r="V77">
+        <v>665</v>
+      </c>
+      <c r="W77">
+        <v>-488</v>
+      </c>
+      <c r="X77">
+        <v>-904</v>
+      </c>
+      <c r="Y77">
+        <v>624</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>182</v>
+      </c>
+      <c r="D78">
+        <v>6536</v>
+      </c>
+      <c r="E78">
+        <v>1973</v>
+      </c>
+      <c r="F78">
+        <v>2128</v>
+      </c>
+      <c r="G78">
+        <v>8097</v>
+      </c>
+      <c r="H78">
+        <v>101450</v>
+      </c>
+      <c r="I78">
+        <v>4003</v>
+      </c>
+      <c r="J78">
+        <v>28058</v>
+      </c>
+      <c r="K78">
+        <v>259</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>7875</v>
+      </c>
+      <c r="O78">
+        <v>49701</v>
+      </c>
+      <c r="P78">
+        <v>30098</v>
+      </c>
+      <c r="Q78">
+        <v>-36</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>37000</v>
+      </c>
+      <c r="T78">
+        <v>51749</v>
+      </c>
+      <c r="U78">
+        <v>2279</v>
+      </c>
+      <c r="V78">
+        <v>1562</v>
+      </c>
+      <c r="W78">
+        <v>-489</v>
+      </c>
+      <c r="X78">
+        <v>-2032</v>
+      </c>
+      <c r="Y78">
+        <v>612</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>378</v>
+      </c>
+      <c r="D79">
+        <v>6157</v>
+      </c>
+      <c r="E79">
+        <v>2321</v>
+      </c>
+      <c r="F79">
+        <v>1859</v>
+      </c>
+      <c r="G79">
+        <v>11708</v>
+      </c>
+      <c r="H79">
+        <v>104073</v>
+      </c>
+      <c r="I79">
+        <v>3956</v>
+      </c>
+      <c r="J79">
+        <v>31531</v>
+      </c>
+      <c r="K79">
+        <v>220</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-407</v>
+      </c>
+      <c r="N79">
+        <v>7934</v>
+      </c>
+      <c r="O79">
+        <v>52949</v>
+      </c>
+      <c r="P79">
+        <v>32993</v>
+      </c>
+      <c r="Q79">
+        <v>3124</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>51124</v>
+      </c>
+      <c r="U79">
+        <v>5403</v>
+      </c>
+      <c r="V79">
+        <v>212</v>
+      </c>
+      <c r="W79">
+        <v>-488</v>
+      </c>
+      <c r="X79">
+        <v>3105</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80">
+        <v>-1651</v>
+      </c>
+      <c r="D80">
+        <v>6648</v>
+      </c>
+      <c r="E80">
+        <v>2045</v>
+      </c>
+      <c r="F80">
+        <v>2450</v>
+      </c>
+      <c r="G80">
+        <v>8776</v>
+      </c>
+      <c r="H80">
+        <v>98306</v>
+      </c>
+      <c r="I80">
+        <v>3880</v>
+      </c>
+      <c r="J80">
+        <v>28097</v>
+      </c>
+      <c r="K80">
+        <v>177</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>8050</v>
+      </c>
+      <c r="O80">
+        <v>49141</v>
+      </c>
+      <c r="P80">
+        <v>29031</v>
+      </c>
+      <c r="Q80">
+        <v>-2591</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>49165</v>
+      </c>
+      <c r="U80">
+        <v>2812</v>
+      </c>
+      <c r="V80">
+        <v>2004</v>
+      </c>
+      <c r="W80">
+        <v>-489</v>
+      </c>
+      <c r="X80">
+        <v>-4542</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-1651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81">
+        <v>597</v>
+      </c>
+      <c r="D81">
+        <v>6441</v>
+      </c>
+      <c r="E81">
+        <v>1979</v>
+      </c>
+      <c r="F81">
+        <v>2341</v>
+      </c>
+      <c r="G81">
+        <v>10065</v>
+      </c>
+      <c r="H81">
+        <v>98122</v>
+      </c>
+      <c r="I81">
+        <v>4052</v>
+      </c>
+      <c r="J81">
+        <v>27882</v>
+      </c>
+      <c r="K81">
+        <v>112</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>7694</v>
+      </c>
+      <c r="O81">
+        <v>48783</v>
+      </c>
+      <c r="P81">
+        <v>28523</v>
+      </c>
+      <c r="Q81">
+        <v>-92</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>49339</v>
+      </c>
+      <c r="U81">
+        <v>2720</v>
+      </c>
+      <c r="V81">
+        <v>1110</v>
+      </c>
+      <c r="W81">
+        <v>-490</v>
+      </c>
+      <c r="X81">
+        <v>-1072</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44191</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82">
         <v>1032</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>6939</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2063</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2521</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>10822</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>99830</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>4304</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>27954</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>242</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>8061</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>49587</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>29152</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>697</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44191</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>38000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>50243</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3417</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1603</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-491</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-822</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>591</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>1032</v>
       </c>
     </row>
